--- a/2. Purchase Order/English Version/7. High Temp Metals/2. Alloy X & Alloy L605/ToKhaiHQ7N_QDTQ_102930430521.xlsx
+++ b/2. Purchase Order/English Version/7. High Temp Metals/2. Alloy X & Alloy L605/ToKhaiHQ7N_QDTQ_102930430521.xlsx
@@ -27,9 +27,6 @@
     <t>1/4</t>
   </si>
   <si>
-    <t>Tờ khai bổ sung hàng hóa nhập khẩu (người khai Hải quan thực hiện)</t>
-  </si>
-  <si>
     <t>*102930430521*</t>
   </si>
   <si>
@@ -661,6 +658,9 @@
   </si>
   <si>
     <t>5.373.695,1641</t>
+  </si>
+  <si>
+    <t>Tờ khai hàng hóa nhập khẩu ( thông quan )</t>
   </si>
 </sst>
 </file>
@@ -1399,8 +1399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL379"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A114" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I140" sqref="I140"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16:AF16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" customHeight="1"/>
@@ -1493,7 +1493,7 @@
       <c r="C2" s="12"/>
       <c r="E2" s="56"/>
       <c r="F2" s="89" t="s">
-        <v>2</v>
+        <v>213</v>
       </c>
       <c r="G2" s="89"/>
       <c r="H2" s="89"/>
@@ -1556,7 +1556,7 @@
       <c r="Y3" s="56"/>
       <c r="Z3" s="56"/>
       <c r="AA3" s="92" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB3" s="92"/>
       <c r="AC3" s="92"/>
@@ -1574,7 +1574,7 @@
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="40" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="59">
@@ -1587,7 +1587,7 @@
       <c r="J4" s="59"/>
       <c r="K4" s="59"/>
       <c r="L4" s="60" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M4" s="60"/>
       <c r="N4" s="60"/>
@@ -1600,7 +1600,7 @@
       <c r="U4" s="58"/>
       <c r="V4" s="15"/>
       <c r="W4" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X4" s="15"/>
       <c r="Y4" s="14"/>
@@ -1620,7 +1620,7 @@
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
@@ -1660,7 +1660,7 @@
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
@@ -1668,25 +1668,25 @@
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
       <c r="I6" s="58" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J6" s="58"/>
       <c r="K6" s="58"/>
       <c r="L6" s="39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M6" s="15"/>
       <c r="N6" s="15"/>
       <c r="O6" s="15"/>
       <c r="P6" s="65" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q6" s="65"/>
       <c r="R6" s="65"/>
       <c r="S6" s="65"/>
       <c r="T6" s="65"/>
       <c r="U6" s="64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V6" s="64"/>
       <c r="W6" s="64"/>
@@ -1698,7 +1698,7 @@
       <c r="AC6" s="64"/>
       <c r="AD6" s="17"/>
       <c r="AE6" s="58" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF6" s="58"/>
       <c r="AG6" s="58"/>
@@ -1710,7 +1710,7 @@
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
@@ -1721,7 +1721,7 @@
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
       <c r="L7" s="58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M7" s="58"/>
       <c r="N7" s="58"/>
@@ -1731,7 +1731,7 @@
       <c r="R7" s="58"/>
       <c r="S7" s="58"/>
       <c r="T7" s="64" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U7" s="64"/>
       <c r="V7" s="64"/>
@@ -1744,7 +1744,7 @@
       <c r="AC7" s="64"/>
       <c r="AD7" s="17"/>
       <c r="AE7" s="58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF7" s="58"/>
       <c r="AG7" s="58"/>
@@ -1756,20 +1756,20 @@
       <c r="A8" s="14"/>
       <c r="B8" s="18"/>
       <c r="C8" s="41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
       <c r="G8" s="61" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H8" s="61"/>
       <c r="I8" s="61"/>
       <c r="J8" s="61"/>
       <c r="K8" s="61"/>
       <c r="L8" s="43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M8" s="42"/>
       <c r="N8" s="19"/>
@@ -1777,13 +1777,13 @@
       <c r="P8" s="19"/>
       <c r="Q8" s="19"/>
       <c r="R8" s="61" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S8" s="61"/>
       <c r="T8" s="61"/>
       <c r="U8" s="61"/>
       <c r="V8" s="62" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W8" s="62"/>
       <c r="X8" s="62"/>
@@ -1804,7 +1804,7 @@
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1845,13 +1845,13 @@
       <c r="B10" s="14"/>
       <c r="C10" s="21"/>
       <c r="D10" s="70" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="70"/>
       <c r="F10" s="70"/>
       <c r="G10" s="70"/>
       <c r="H10" s="67" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I10" s="67"/>
       <c r="J10" s="67"/>
@@ -1887,13 +1887,13 @@
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
       <c r="D11" s="66" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11" s="66"/>
       <c r="F11" s="66"/>
       <c r="G11" s="66"/>
       <c r="H11" s="67" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I11" s="67"/>
       <c r="J11" s="67"/>
@@ -1967,13 +1967,13 @@
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
       <c r="D13" s="66" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E13" s="66"/>
       <c r="F13" s="66"/>
       <c r="G13" s="66"/>
       <c r="H13" s="68" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I13" s="68"/>
       <c r="J13" s="68"/>
@@ -2009,13 +2009,13 @@
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
       <c r="D14" s="66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14" s="66"/>
       <c r="F14" s="66"/>
       <c r="G14" s="66"/>
       <c r="H14" s="67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I14" s="67"/>
       <c r="J14" s="67"/>
@@ -2089,13 +2089,13 @@
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
       <c r="D16" s="45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="68" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I16" s="68"/>
       <c r="J16" s="68"/>
@@ -2130,7 +2130,7 @@
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -2171,13 +2171,13 @@
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="2"/>
       <c r="H18" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I18" s="58"/>
       <c r="J18" s="58"/>
@@ -2213,13 +2213,13 @@
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
       <c r="D19" s="40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="2"/>
       <c r="H19" s="68" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I19" s="68"/>
       <c r="J19" s="68"/>
@@ -2292,7 +2292,7 @@
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
       <c r="C21" s="40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
@@ -2333,13 +2333,13 @@
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I22" s="58"/>
       <c r="J22" s="58"/>
@@ -2375,13 +2375,13 @@
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I23" s="58"/>
       <c r="J23" s="58"/>
@@ -2417,13 +2417,13 @@
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E24" s="60"/>
       <c r="F24" s="60"/>
       <c r="G24" s="60"/>
       <c r="H24" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I24" s="58"/>
       <c r="J24" s="58"/>
@@ -2459,13 +2459,13 @@
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E25" s="60"/>
       <c r="F25" s="60"/>
       <c r="G25" s="14"/>
       <c r="H25" s="58" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I25" s="58"/>
       <c r="J25" s="58"/>
@@ -2480,7 +2480,7 @@
       <c r="S25" s="58"/>
       <c r="T25" s="58"/>
       <c r="U25" s="68" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V25" s="68"/>
       <c r="W25" s="68"/>
@@ -2507,7 +2507,7 @@
       <c r="F26" s="60"/>
       <c r="G26" s="14"/>
       <c r="H26" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I26" s="58"/>
       <c r="J26" s="58"/>
@@ -2522,7 +2522,7 @@
       <c r="S26" s="58"/>
       <c r="T26" s="58"/>
       <c r="U26" s="68" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V26" s="68"/>
       <c r="W26" s="68"/>
@@ -2545,13 +2545,13 @@
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
       <c r="H27" s="58" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I27" s="58"/>
       <c r="J27" s="58"/>
@@ -2586,7 +2586,7 @@
       <c r="A28" s="14"/>
       <c r="B28" s="18"/>
       <c r="C28" s="41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
@@ -2594,7 +2594,7 @@
       <c r="G28" s="18"/>
       <c r="H28" s="18"/>
       <c r="I28" s="71" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J28" s="71"/>
       <c r="K28" s="71"/>
@@ -2628,13 +2628,13 @@
       <c r="A29" s="14"/>
       <c r="B29" s="28"/>
       <c r="C29" s="46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D29" s="28"/>
       <c r="E29" s="28"/>
       <c r="F29" s="28"/>
       <c r="G29" s="72" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H29" s="72"/>
       <c r="I29" s="72"/>
@@ -2656,14 +2656,14 @@
       <c r="Y29" s="72"/>
       <c r="Z29" s="28"/>
       <c r="AA29" s="46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB29" s="28"/>
       <c r="AC29" s="28"/>
       <c r="AD29" s="28"/>
       <c r="AE29" s="28"/>
       <c r="AF29" s="73" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AG29" s="73"/>
       <c r="AH29" s="73"/>
@@ -2674,7 +2674,7 @@
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D30" s="14"/>
       <c r="E30" s="74"/>
@@ -2691,19 +2691,19 @@
       <c r="P30" s="75"/>
       <c r="Q30" s="14"/>
       <c r="R30" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S30" s="14"/>
       <c r="T30" s="14"/>
       <c r="U30" s="76" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="V30" s="76"/>
       <c r="W30" s="76"/>
       <c r="X30" s="76"/>
       <c r="Y30" s="29"/>
       <c r="Z30" s="77" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA30" s="77"/>
       <c r="AB30" s="77"/>
@@ -2723,7 +2723,7 @@
         <v>1</v>
       </c>
       <c r="D31" s="58" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E31" s="58"/>
       <c r="F31" s="58"/>
@@ -2739,19 +2739,19 @@
       <c r="P31" s="78"/>
       <c r="Q31" s="14"/>
       <c r="R31" s="40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S31" s="14"/>
       <c r="T31" s="14"/>
       <c r="U31" s="79" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="V31" s="79"/>
       <c r="W31" s="79"/>
       <c r="X31" s="79"/>
       <c r="Y31" s="31"/>
       <c r="Z31" s="80" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA31" s="80"/>
       <c r="AB31" s="80"/>
@@ -2771,7 +2771,7 @@
         <v>2</v>
       </c>
       <c r="D32" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E32" s="58"/>
       <c r="F32" s="58"/>
@@ -2787,19 +2787,19 @@
       <c r="P32" s="78"/>
       <c r="Q32" s="14"/>
       <c r="R32" s="40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S32" s="14"/>
       <c r="T32" s="14"/>
       <c r="U32" s="81" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V32" s="81"/>
       <c r="W32" s="81"/>
       <c r="X32" s="81"/>
       <c r="Y32" s="15"/>
       <c r="Z32" s="58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA32" s="58"/>
       <c r="AB32" s="58"/>
@@ -2819,7 +2819,7 @@
         <v>3</v>
       </c>
       <c r="D33" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E33" s="58"/>
       <c r="F33" s="58"/>
@@ -2835,7 +2835,7 @@
       <c r="P33" s="78"/>
       <c r="Q33" s="14"/>
       <c r="R33" s="40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S33" s="14"/>
       <c r="T33" s="14"/>
@@ -2863,7 +2863,7 @@
         <v>4</v>
       </c>
       <c r="D34" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E34" s="58"/>
       <c r="F34" s="58"/>
@@ -2881,7 +2881,7 @@
       <c r="R34" s="1"/>
       <c r="S34" s="14"/>
       <c r="T34" s="57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U34" s="57"/>
       <c r="V34" s="57"/>
@@ -2889,7 +2889,7 @@
       <c r="X34" s="57"/>
       <c r="Y34" s="15"/>
       <c r="Z34" s="58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AA34" s="58"/>
       <c r="AB34" s="58"/>
@@ -2909,7 +2909,7 @@
         <v>5</v>
       </c>
       <c r="D35" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E35" s="58"/>
       <c r="F35" s="58"/>
@@ -2925,12 +2925,12 @@
       <c r="P35" s="78"/>
       <c r="Q35" s="14"/>
       <c r="R35" s="40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S35" s="14"/>
       <c r="T35" s="14"/>
       <c r="U35" s="65" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V35" s="65"/>
       <c r="W35" s="65"/>
@@ -2952,7 +2952,7 @@
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
@@ -2962,23 +2962,23 @@
       <c r="I36" s="14"/>
       <c r="J36" s="14"/>
       <c r="K36" s="57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L36" s="57"/>
       <c r="M36" s="57"/>
       <c r="N36" s="57"/>
       <c r="O36" s="14"/>
       <c r="P36" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q36" s="14"/>
       <c r="R36" s="40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S36" s="14"/>
       <c r="T36" s="14"/>
       <c r="U36" s="80" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V36" s="80"/>
       <c r="W36" s="80"/>
@@ -3000,7 +3000,7 @@
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
       <c r="C37" s="40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D37" s="14"/>
       <c r="E37" s="14"/>
@@ -3010,14 +3010,14 @@
       <c r="I37" s="14"/>
       <c r="J37" s="14"/>
       <c r="K37" s="57" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L37" s="57"/>
       <c r="M37" s="57"/>
       <c r="N37" s="57"/>
       <c r="O37" s="14"/>
       <c r="P37" s="30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q37" s="14"/>
       <c r="R37" s="14"/>
@@ -3044,7 +3044,7 @@
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
       <c r="C38" s="40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
@@ -3099,7 +3099,7 @@
       <c r="P39" s="30"/>
       <c r="Q39" s="14"/>
       <c r="R39" s="60" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S39" s="60"/>
       <c r="T39" s="60"/>
@@ -3139,7 +3139,7 @@
       <c r="P40" s="32"/>
       <c r="Q40" s="18"/>
       <c r="R40" s="82" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S40" s="82"/>
       <c r="T40" s="82"/>
@@ -3148,7 +3148,7 @@
       <c r="W40" s="82"/>
       <c r="X40" s="82"/>
       <c r="Y40" s="83" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z40" s="83"/>
       <c r="AA40" s="83"/>
@@ -3166,7 +3166,7 @@
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" s="40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D41" s="47"/>
       <c r="E41" s="47"/>
@@ -3175,7 +3175,7 @@
       <c r="H41" s="2"/>
       <c r="I41" s="1"/>
       <c r="J41" s="77" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K41" s="77"/>
       <c r="L41" s="77"/>
@@ -3208,7 +3208,7 @@
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D42" s="40"/>
       <c r="E42" s="40"/>
@@ -3217,7 +3217,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="2"/>
       <c r="J42" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K42" s="58"/>
       <c r="L42" s="58"/>
@@ -3250,7 +3250,7 @@
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
       <c r="C43" s="40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D43" s="40"/>
       <c r="E43" s="40"/>
@@ -3259,7 +3259,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="3"/>
       <c r="J43" s="58" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K43" s="58"/>
       <c r="L43" s="58"/>
@@ -3292,7 +3292,7 @@
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" s="40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D44" s="40"/>
       <c r="E44" s="40"/>
@@ -3301,7 +3301,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="3"/>
       <c r="J44" s="58" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K44" s="58"/>
       <c r="L44" s="58"/>
@@ -3334,7 +3334,7 @@
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" s="60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D45" s="60"/>
       <c r="E45" s="60"/>
@@ -3343,7 +3343,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="3"/>
       <c r="J45" s="58" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K45" s="58"/>
       <c r="L45" s="58"/>
@@ -3351,7 +3351,7 @@
       <c r="N45" s="58"/>
       <c r="O45" s="58"/>
       <c r="P45" s="57" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q45" s="57"/>
       <c r="R45" s="57"/>
@@ -3378,7 +3378,7 @@
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
       <c r="C46" s="40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D46" s="40"/>
       <c r="E46" s="40"/>
@@ -3387,7 +3387,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="3"/>
       <c r="J46" s="57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K46" s="57"/>
       <c r="L46" s="57"/>
@@ -3420,7 +3420,7 @@
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" s="60" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D47" s="60"/>
       <c r="E47" s="60"/>
@@ -3429,7 +3429,7 @@
       <c r="H47" s="60"/>
       <c r="I47" s="60"/>
       <c r="J47" s="57" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K47" s="57"/>
       <c r="L47" s="57"/>
@@ -3445,7 +3445,7 @@
       <c r="V47" s="57"/>
       <c r="W47" s="57"/>
       <c r="X47" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Y47" s="15"/>
       <c r="Z47" s="15"/>
@@ -3464,7 +3464,7 @@
       <c r="A48" s="14"/>
       <c r="B48" s="18"/>
       <c r="C48" s="41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D48" s="41"/>
       <c r="E48" s="41"/>
@@ -3473,7 +3473,7 @@
       <c r="H48" s="41"/>
       <c r="I48" s="55"/>
       <c r="J48" s="71" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K48" s="71"/>
       <c r="L48" s="71"/>
@@ -3506,7 +3506,7 @@
       <c r="A49" s="14"/>
       <c r="B49" s="33"/>
       <c r="C49" s="49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D49" s="33"/>
       <c r="E49" s="33"/>
@@ -3549,13 +3549,13 @@
         <v>1</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E50" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F50" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G50" s="58"/>
       <c r="H50" s="58"/>
@@ -3569,13 +3569,13 @@
         <v>2</v>
       </c>
       <c r="P50" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q50" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R50" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S50" s="58"/>
       <c r="T50" s="58"/>
@@ -3588,13 +3588,13 @@
       </c>
       <c r="Z50" s="85"/>
       <c r="AA50" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB50" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC50" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AD50" s="58"/>
       <c r="AE50" s="58"/>
@@ -3611,13 +3611,13 @@
         <v>4</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E51" s="39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F51" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G51" s="58"/>
       <c r="H51" s="58"/>
@@ -3631,13 +3631,13 @@
         <v>5</v>
       </c>
       <c r="P51" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q51" s="39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R51" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S51" s="58"/>
       <c r="T51" s="58"/>
@@ -3662,7 +3662,7 @@
       <c r="A52" s="14"/>
       <c r="B52" s="14"/>
       <c r="C52" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D52" s="14"/>
       <c r="E52" s="14"/>
@@ -3670,7 +3670,7 @@
       <c r="G52" s="14"/>
       <c r="H52" s="14"/>
       <c r="I52" s="58" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J52" s="58"/>
       <c r="K52" s="58"/>
@@ -3704,7 +3704,7 @@
       <c r="A53" s="14"/>
       <c r="B53" s="14"/>
       <c r="C53" s="40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="14"/>
@@ -3712,7 +3712,7 @@
       <c r="G53" s="14"/>
       <c r="H53" s="14"/>
       <c r="I53" s="65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J53" s="65"/>
       <c r="K53" s="65"/>
@@ -3720,14 +3720,14 @@
       <c r="M53" s="65"/>
       <c r="N53" s="65"/>
       <c r="O53" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P53" s="65"/>
       <c r="Q53" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R53" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S53" s="58"/>
       <c r="T53" s="58"/>
@@ -3736,12 +3736,12 @@
       <c r="W53" s="58"/>
       <c r="X53" s="58"/>
       <c r="Y53" s="65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z53" s="65"/>
       <c r="AA53" s="65"/>
       <c r="AB53" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC53" s="65"/>
       <c r="AD53" s="65"/>
@@ -3756,7 +3756,7 @@
       <c r="A54" s="14"/>
       <c r="B54" s="14"/>
       <c r="C54" s="40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D54" s="14"/>
       <c r="E54" s="14"/>
@@ -3796,7 +3796,7 @@
       <c r="A55" s="14"/>
       <c r="B55" s="14"/>
       <c r="C55" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D55" s="14"/>
       <c r="E55" s="14"/>
@@ -3804,12 +3804,12 @@
       <c r="G55" s="14"/>
       <c r="H55" s="14"/>
       <c r="I55" s="65" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J55" s="65"/>
       <c r="K55" s="65"/>
       <c r="L55" s="86" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M55" s="86"/>
       <c r="N55" s="86"/>
@@ -3840,7 +3840,7 @@
       <c r="A56" s="14"/>
       <c r="B56" s="14"/>
       <c r="C56" s="40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D56" s="14"/>
       <c r="E56" s="14"/>
@@ -3848,7 +3848,7 @@
       <c r="G56" s="14"/>
       <c r="H56" s="14"/>
       <c r="I56" s="65" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J56" s="65"/>
       <c r="K56" s="65"/>
@@ -3863,7 +3863,7 @@
       <c r="T56" s="57"/>
       <c r="U56" s="57"/>
       <c r="V56" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W56" s="65"/>
       <c r="X56" s="65"/>
@@ -3885,12 +3885,12 @@
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
       <c r="D57" s="40" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="85" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H57" s="85"/>
       <c r="I57" s="85"/>
@@ -3899,7 +3899,7 @@
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
       <c r="N57" s="39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
@@ -3908,7 +3908,7 @@
       <c r="S57" s="2"/>
       <c r="T57" s="2"/>
       <c r="U57" s="85" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="V57" s="85"/>
       <c r="W57" s="85"/>
@@ -3933,26 +3933,26 @@
         <v>1</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E58" s="85" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F58" s="85"/>
       <c r="G58" s="65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H58" s="65"/>
       <c r="I58" s="65"/>
       <c r="J58" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K58" s="65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L58" s="65"/>
       <c r="M58" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N58" s="57"/>
       <c r="O58" s="57"/>
@@ -3985,26 +3985,26 @@
         <v>2</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E59" s="85" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F59" s="85"/>
       <c r="G59" s="65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H59" s="65"/>
       <c r="I59" s="65"/>
       <c r="J59" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K59" s="65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L59" s="65"/>
       <c r="M59" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N59" s="57"/>
       <c r="O59" s="57"/>
@@ -4037,26 +4037,26 @@
         <v>3</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E60" s="85" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F60" s="85"/>
       <c r="G60" s="65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H60" s="65"/>
       <c r="I60" s="65"/>
       <c r="J60" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K60" s="65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L60" s="65"/>
       <c r="M60" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N60" s="57"/>
       <c r="O60" s="57"/>
@@ -4089,26 +4089,26 @@
         <v>4</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E61" s="85" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F61" s="85"/>
       <c r="G61" s="65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H61" s="65"/>
       <c r="I61" s="65"/>
       <c r="J61" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K61" s="65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L61" s="65"/>
       <c r="M61" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N61" s="57"/>
       <c r="O61" s="57"/>
@@ -4141,26 +4141,26 @@
         <v>5</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E62" s="85" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F62" s="85"/>
       <c r="G62" s="65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H62" s="65"/>
       <c r="I62" s="65"/>
       <c r="J62" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K62" s="65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L62" s="65"/>
       <c r="M62" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N62" s="57"/>
       <c r="O62" s="57"/>
@@ -4190,7 +4190,7 @@
       <c r="A63" s="14"/>
       <c r="B63" s="14"/>
       <c r="C63" s="40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D63" s="14"/>
       <c r="E63" s="14"/>
@@ -4231,7 +4231,7 @@
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
       <c r="D64" s="68" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E64" s="68"/>
       <c r="F64" s="68"/>
@@ -4347,20 +4347,20 @@
       <c r="B67" s="14"/>
       <c r="C67" s="14"/>
       <c r="D67" s="87" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E67" s="87"/>
       <c r="F67" s="87"/>
       <c r="G67" s="87"/>
       <c r="H67" s="87" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I67" s="87"/>
       <c r="J67" s="87"/>
       <c r="K67" s="87"/>
       <c r="L67" s="87"/>
       <c r="M67" s="87" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N67" s="87"/>
       <c r="O67" s="87"/>
@@ -4393,29 +4393,29 @@
         <v>1</v>
       </c>
       <c r="D68" s="58" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E68" s="58"/>
       <c r="F68" s="58"/>
       <c r="G68" s="58"/>
       <c r="H68" s="57" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I68" s="57"/>
       <c r="J68" s="57"/>
       <c r="K68" s="57"/>
       <c r="L68" s="85" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M68" s="85"/>
       <c r="N68" s="65" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O68" s="65"/>
       <c r="P68" s="65"/>
       <c r="Q68" s="14"/>
       <c r="R68" s="40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S68" s="14"/>
       <c r="T68" s="14"/>
@@ -4423,7 +4423,7 @@
       <c r="V68" s="14"/>
       <c r="W68" s="14"/>
       <c r="X68" s="57" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y68" s="57"/>
       <c r="Z68" s="57"/>
@@ -4432,7 +4432,7 @@
       <c r="AC68" s="57"/>
       <c r="AD68" s="17"/>
       <c r="AE68" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AF68" s="17"/>
       <c r="AG68" s="17"/>
@@ -4447,7 +4447,7 @@
         <v>2</v>
       </c>
       <c r="D69" s="58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E69" s="58"/>
       <c r="F69" s="58"/>
@@ -4457,17 +4457,17 @@
       <c r="J69" s="57"/>
       <c r="K69" s="57"/>
       <c r="L69" s="85" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M69" s="85"/>
       <c r="N69" s="65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O69" s="65"/>
       <c r="P69" s="65"/>
       <c r="Q69" s="14"/>
       <c r="R69" s="40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="S69" s="14"/>
       <c r="T69" s="14"/>
@@ -4482,7 +4482,7 @@
       <c r="AC69" s="57"/>
       <c r="AD69" s="17"/>
       <c r="AE69" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AF69" s="17"/>
       <c r="AG69" s="17"/>
@@ -4497,7 +4497,7 @@
         <v>3</v>
       </c>
       <c r="D70" s="58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E70" s="58"/>
       <c r="F70" s="58"/>
@@ -4507,17 +4507,17 @@
       <c r="J70" s="57"/>
       <c r="K70" s="57"/>
       <c r="L70" s="85" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M70" s="85"/>
       <c r="N70" s="65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O70" s="65"/>
       <c r="P70" s="65"/>
       <c r="Q70" s="14"/>
       <c r="R70" s="40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="S70" s="14"/>
       <c r="T70" s="14"/>
@@ -4525,15 +4525,15 @@
       <c r="V70" s="14"/>
       <c r="W70" s="14"/>
       <c r="X70" s="81" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Y70" s="81"/>
       <c r="Z70" s="81"/>
       <c r="AA70" s="50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AB70" s="57" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AC70" s="57"/>
       <c r="AD70" s="57"/>
@@ -4551,7 +4551,7 @@
         <v>4</v>
       </c>
       <c r="D71" s="58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E71" s="58"/>
       <c r="F71" s="58"/>
@@ -4561,11 +4561,11 @@
       <c r="J71" s="57"/>
       <c r="K71" s="57"/>
       <c r="L71" s="85" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M71" s="85"/>
       <c r="N71" s="65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O71" s="65"/>
       <c r="P71" s="65"/>
@@ -4577,12 +4577,12 @@
       <c r="V71" s="14"/>
       <c r="W71" s="14"/>
       <c r="X71" s="81" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Y71" s="81"/>
       <c r="Z71" s="81"/>
       <c r="AA71" s="50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AB71" s="57"/>
       <c r="AC71" s="57"/>
@@ -4601,7 +4601,7 @@
         <v>5</v>
       </c>
       <c r="D72" s="58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E72" s="58"/>
       <c r="F72" s="58"/>
@@ -4611,11 +4611,11 @@
       <c r="J72" s="57"/>
       <c r="K72" s="57"/>
       <c r="L72" s="85" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M72" s="85"/>
       <c r="N72" s="65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O72" s="65"/>
       <c r="P72" s="65"/>
@@ -4627,12 +4627,12 @@
       <c r="V72" s="14"/>
       <c r="W72" s="14"/>
       <c r="X72" s="81" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Y72" s="81"/>
       <c r="Z72" s="81"/>
       <c r="AA72" s="50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AB72" s="88"/>
       <c r="AC72" s="88"/>
@@ -4651,7 +4651,7 @@
         <v>6</v>
       </c>
       <c r="D73" s="58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E73" s="58"/>
       <c r="F73" s="58"/>
@@ -4661,17 +4661,17 @@
       <c r="J73" s="57"/>
       <c r="K73" s="57"/>
       <c r="L73" s="85" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M73" s="85"/>
       <c r="N73" s="65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O73" s="65"/>
       <c r="P73" s="65"/>
       <c r="Q73" s="14"/>
       <c r="R73" s="40" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S73" s="14"/>
       <c r="T73" s="14"/>
@@ -4679,19 +4679,19 @@
       <c r="V73" s="14"/>
       <c r="W73" s="14"/>
       <c r="X73" s="65" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Y73" s="65"/>
       <c r="Z73" s="14"/>
       <c r="AA73" s="14"/>
       <c r="AB73" s="14"/>
       <c r="AC73" s="40" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AD73" s="14"/>
       <c r="AE73" s="14"/>
       <c r="AF73" s="65" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AG73" s="65"/>
       <c r="AH73" s="14"/>
@@ -4717,7 +4717,7 @@
       <c r="P74" s="14"/>
       <c r="Q74" s="14"/>
       <c r="R74" s="40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S74" s="14"/>
       <c r="T74" s="14"/>
@@ -4725,19 +4725,19 @@
       <c r="V74" s="14"/>
       <c r="W74" s="14"/>
       <c r="X74" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Y74" s="58"/>
       <c r="Z74" s="14"/>
       <c r="AA74" s="14"/>
       <c r="AB74" s="14"/>
       <c r="AC74" s="40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AD74" s="14"/>
       <c r="AE74" s="14"/>
       <c r="AF74" s="65" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AG74" s="65"/>
       <c r="AH74" s="14"/>
@@ -4760,7 +4760,7 @@
       <c r="M75" s="14"/>
       <c r="N75" s="14"/>
       <c r="O75" s="60" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P75" s="60"/>
       <c r="Q75" s="60"/>
@@ -4768,12 +4768,12 @@
       <c r="S75" s="60"/>
       <c r="T75" s="60"/>
       <c r="U75" s="65" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="V75" s="65"/>
       <c r="W75" s="65"/>
       <c r="X75" s="39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Y75" s="15"/>
       <c r="Z75" s="15"/>
@@ -4783,7 +4783,7 @@
       <c r="AD75" s="14"/>
       <c r="AE75" s="14"/>
       <c r="AF75" s="65" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG75" s="65"/>
       <c r="AH75" s="14"/>
@@ -4825,7 +4825,7 @@
       <c r="AD76" s="12"/>
       <c r="AE76" s="12"/>
       <c r="AF76" s="58" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AG76" s="58"/>
       <c r="AH76" s="58"/>
@@ -4837,7 +4837,7 @@
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
       <c r="D77" s="89" t="s">
-        <v>2</v>
+        <v>213</v>
       </c>
       <c r="E77" s="89"/>
       <c r="F77" s="89"/>
@@ -4914,7 +4914,7 @@
       <c r="A79" s="14"/>
       <c r="B79" s="14"/>
       <c r="C79" s="40" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" s="14"/>
       <c r="E79" s="59">
@@ -4927,7 +4927,7 @@
       <c r="J79" s="59"/>
       <c r="K79" s="59"/>
       <c r="L79" s="60" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M79" s="60"/>
       <c r="N79" s="60"/>
@@ -4940,10 +4940,10 @@
       <c r="U79" s="65"/>
       <c r="V79" s="16"/>
       <c r="W79" s="51" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X79" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Y79" s="15"/>
       <c r="Z79" s="15"/>
@@ -4962,7 +4962,7 @@
       <c r="A80" s="14"/>
       <c r="B80" s="14"/>
       <c r="C80" s="40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D80" s="14"/>
       <c r="E80" s="14"/>
@@ -5002,7 +5002,7 @@
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
       <c r="C81" s="40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D81" s="14"/>
       <c r="E81" s="14"/>
@@ -5010,25 +5010,25 @@
       <c r="G81" s="14"/>
       <c r="H81" s="14"/>
       <c r="I81" s="58" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J81" s="58"/>
       <c r="K81" s="58"/>
       <c r="L81" s="39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M81" s="15"/>
       <c r="N81" s="15"/>
       <c r="O81" s="15"/>
       <c r="P81" s="65" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q81" s="65"/>
       <c r="R81" s="65"/>
       <c r="S81" s="65"/>
       <c r="T81" s="65"/>
       <c r="U81" s="64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V81" s="64"/>
       <c r="W81" s="64"/>
@@ -5040,7 +5040,7 @@
       <c r="AC81" s="64"/>
       <c r="AD81" s="17"/>
       <c r="AE81" s="58" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF81" s="58"/>
       <c r="AG81" s="58"/>
@@ -5052,7 +5052,7 @@
       <c r="A82" s="14"/>
       <c r="B82" s="14"/>
       <c r="C82" s="40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D82" s="14"/>
       <c r="E82" s="14"/>
@@ -5063,7 +5063,7 @@
       <c r="J82" s="14"/>
       <c r="K82" s="14"/>
       <c r="L82" s="58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M82" s="58"/>
       <c r="N82" s="58"/>
@@ -5073,7 +5073,7 @@
       <c r="R82" s="58"/>
       <c r="S82" s="58"/>
       <c r="T82" s="64" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U82" s="64"/>
       <c r="V82" s="64"/>
@@ -5086,7 +5086,7 @@
       <c r="AC82" s="64"/>
       <c r="AD82" s="17"/>
       <c r="AE82" s="58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF82" s="58"/>
       <c r="AG82" s="58"/>
@@ -5098,20 +5098,20 @@
       <c r="A83" s="14"/>
       <c r="B83" s="18"/>
       <c r="C83" s="41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D83" s="18"/>
       <c r="E83" s="19"/>
       <c r="F83" s="19"/>
       <c r="G83" s="71" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H83" s="71"/>
       <c r="I83" s="71"/>
       <c r="J83" s="71"/>
       <c r="K83" s="71"/>
       <c r="L83" s="82" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M83" s="82"/>
       <c r="N83" s="82"/>
@@ -5119,13 +5119,13 @@
       <c r="P83" s="82"/>
       <c r="Q83" s="82"/>
       <c r="R83" s="71" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S83" s="71"/>
       <c r="T83" s="71"/>
       <c r="U83" s="71"/>
       <c r="V83" s="62" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W83" s="62"/>
       <c r="X83" s="62"/>
@@ -5146,7 +5146,7 @@
       <c r="A84" s="14"/>
       <c r="B84" s="14"/>
       <c r="C84" s="40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D84" s="14"/>
       <c r="E84" s="14"/>
@@ -5158,7 +5158,7 @@
         <v>1</v>
       </c>
       <c r="K84" s="74" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L84" s="74"/>
       <c r="M84" s="74"/>
@@ -5170,7 +5170,7 @@
         <v>2</v>
       </c>
       <c r="S84" s="58" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T84" s="58"/>
       <c r="U84" s="58"/>
@@ -5181,7 +5181,7 @@
         <v>3</v>
       </c>
       <c r="Z84" s="74" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AA84" s="74"/>
       <c r="AB84" s="74"/>
@@ -5198,13 +5198,13 @@
       <c r="A85" s="14"/>
       <c r="B85" s="14"/>
       <c r="C85" s="40" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D85" s="14"/>
       <c r="E85" s="14"/>
       <c r="F85" s="14"/>
       <c r="G85" s="68" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H85" s="68"/>
       <c r="I85" s="68"/>
@@ -5278,7 +5278,7 @@
       <c r="A87" s="14"/>
       <c r="B87" s="14"/>
       <c r="C87" s="40" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D87" s="14"/>
       <c r="E87" s="14"/>
@@ -5288,7 +5288,7 @@
       <c r="I87" s="14"/>
       <c r="J87" s="14"/>
       <c r="K87" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L87" s="58"/>
       <c r="M87" s="58"/>
@@ -5300,7 +5300,7 @@
       <c r="S87" s="58"/>
       <c r="T87" s="58"/>
       <c r="U87" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="V87" s="14"/>
       <c r="W87" s="14"/>
@@ -5310,7 +5310,7 @@
       <c r="AA87" s="14"/>
       <c r="AB87" s="14"/>
       <c r="AC87" s="57" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AD87" s="57"/>
       <c r="AE87" s="57"/>
@@ -5324,7 +5324,7 @@
       <c r="A88" s="14"/>
       <c r="B88" s="14"/>
       <c r="C88" s="40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D88" s="14"/>
       <c r="E88" s="14"/>
@@ -5332,7 +5332,7 @@
       <c r="G88" s="14"/>
       <c r="H88" s="14"/>
       <c r="I88" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J88" s="14"/>
       <c r="K88" s="14"/>
@@ -5367,14 +5367,14 @@
       <c r="B89" s="14"/>
       <c r="C89" s="14"/>
       <c r="D89" s="85" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E89" s="85"/>
       <c r="F89" s="85"/>
       <c r="G89" s="85"/>
       <c r="H89" s="3"/>
       <c r="I89" s="85" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J89" s="85"/>
       <c r="K89" s="85"/>
@@ -5383,7 +5383,7 @@
       <c r="N89" s="85"/>
       <c r="O89" s="85"/>
       <c r="P89" s="85" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q89" s="85"/>
       <c r="R89" s="85"/>
@@ -5413,14 +5413,14 @@
         <v>1</v>
       </c>
       <c r="D90" s="90" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E90" s="90"/>
       <c r="F90" s="90"/>
       <c r="G90" s="90"/>
       <c r="H90" s="22"/>
       <c r="I90" s="67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J90" s="67"/>
       <c r="K90" s="67"/>
@@ -5431,7 +5431,7 @@
       <c r="P90" s="67"/>
       <c r="Q90" s="26"/>
       <c r="R90" s="67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S90" s="67"/>
       <c r="T90" s="67"/>
@@ -5535,14 +5535,14 @@
         <v>2</v>
       </c>
       <c r="D93" s="90" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E93" s="90"/>
       <c r="F93" s="90"/>
       <c r="G93" s="90"/>
       <c r="H93" s="22"/>
       <c r="I93" s="67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J93" s="67"/>
       <c r="K93" s="67"/>
@@ -5553,7 +5553,7 @@
       <c r="P93" s="67"/>
       <c r="Q93" s="26"/>
       <c r="R93" s="67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S93" s="67"/>
       <c r="T93" s="67"/>
@@ -5657,14 +5657,14 @@
         <v>3</v>
       </c>
       <c r="D96" s="90" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E96" s="90"/>
       <c r="F96" s="90"/>
       <c r="G96" s="90"/>
       <c r="H96" s="22"/>
       <c r="I96" s="67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J96" s="67"/>
       <c r="K96" s="67"/>
@@ -5675,7 +5675,7 @@
       <c r="P96" s="67"/>
       <c r="Q96" s="26"/>
       <c r="R96" s="67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S96" s="67"/>
       <c r="T96" s="67"/>
@@ -5779,14 +5779,14 @@
         <v>4</v>
       </c>
       <c r="D99" s="90" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E99" s="90"/>
       <c r="F99" s="90"/>
       <c r="G99" s="90"/>
       <c r="H99" s="22"/>
       <c r="I99" s="67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J99" s="67"/>
       <c r="K99" s="67"/>
@@ -5797,7 +5797,7 @@
       <c r="P99" s="67"/>
       <c r="Q99" s="26"/>
       <c r="R99" s="67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S99" s="67"/>
       <c r="T99" s="67"/>
@@ -5901,14 +5901,14 @@
         <v>5</v>
       </c>
       <c r="D102" s="90" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E102" s="90"/>
       <c r="F102" s="90"/>
       <c r="G102" s="90"/>
       <c r="H102" s="22"/>
       <c r="I102" s="67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J102" s="67"/>
       <c r="K102" s="67"/>
@@ -5919,7 +5919,7 @@
       <c r="P102" s="67"/>
       <c r="Q102" s="26"/>
       <c r="R102" s="67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S102" s="67"/>
       <c r="T102" s="67"/>
@@ -6023,14 +6023,14 @@
         <v>6</v>
       </c>
       <c r="D105" s="90" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E105" s="90"/>
       <c r="F105" s="90"/>
       <c r="G105" s="90"/>
       <c r="H105" s="22"/>
       <c r="I105" s="67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J105" s="67"/>
       <c r="K105" s="67"/>
@@ -6041,7 +6041,7 @@
       <c r="P105" s="67"/>
       <c r="Q105" s="26"/>
       <c r="R105" s="67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S105" s="67"/>
       <c r="T105" s="67"/>
@@ -6145,14 +6145,14 @@
         <v>7</v>
       </c>
       <c r="D108" s="90" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E108" s="90"/>
       <c r="F108" s="90"/>
       <c r="G108" s="90"/>
       <c r="H108" s="22"/>
       <c r="I108" s="67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J108" s="67"/>
       <c r="K108" s="67"/>
@@ -6163,7 +6163,7 @@
       <c r="P108" s="67"/>
       <c r="Q108" s="26"/>
       <c r="R108" s="67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S108" s="67"/>
       <c r="T108" s="67"/>
@@ -6267,14 +6267,14 @@
         <v>8</v>
       </c>
       <c r="D111" s="90" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E111" s="90"/>
       <c r="F111" s="90"/>
       <c r="G111" s="90"/>
       <c r="H111" s="22"/>
       <c r="I111" s="67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J111" s="67"/>
       <c r="K111" s="67"/>
@@ -6285,7 +6285,7 @@
       <c r="P111" s="67"/>
       <c r="Q111" s="26"/>
       <c r="R111" s="67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S111" s="67"/>
       <c r="T111" s="67"/>
@@ -6389,14 +6389,14 @@
         <v>9</v>
       </c>
       <c r="D114" s="90" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E114" s="90"/>
       <c r="F114" s="90"/>
       <c r="G114" s="90"/>
       <c r="H114" s="22"/>
       <c r="I114" s="67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J114" s="67"/>
       <c r="K114" s="67"/>
@@ -6407,7 +6407,7 @@
       <c r="P114" s="67"/>
       <c r="Q114" s="26"/>
       <c r="R114" s="67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S114" s="67"/>
       <c r="T114" s="67"/>
@@ -6511,14 +6511,14 @@
         <v>10</v>
       </c>
       <c r="D117" s="90" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E117" s="90"/>
       <c r="F117" s="90"/>
       <c r="G117" s="90"/>
       <c r="H117" s="22"/>
       <c r="I117" s="67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J117" s="67"/>
       <c r="K117" s="67"/>
@@ -6529,7 +6529,7 @@
       <c r="P117" s="67"/>
       <c r="Q117" s="26"/>
       <c r="R117" s="67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S117" s="67"/>
       <c r="T117" s="67"/>
@@ -6630,7 +6630,7 @@
       <c r="A120" s="14"/>
       <c r="B120" s="33"/>
       <c r="C120" s="49" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D120" s="14"/>
       <c r="E120" s="14"/>
@@ -6671,7 +6671,7 @@
       <c r="B121" s="14"/>
       <c r="C121" s="14"/>
       <c r="D121" s="54" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E121" s="10"/>
       <c r="F121" s="10"/>
@@ -6683,7 +6683,7 @@
       <c r="L121" s="14"/>
       <c r="M121" s="14"/>
       <c r="N121" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O121" s="58"/>
       <c r="P121" s="58"/>
@@ -6713,7 +6713,7 @@
       <c r="B122" s="14"/>
       <c r="C122" s="14"/>
       <c r="D122" s="54" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E122" s="10"/>
       <c r="F122" s="10"/>
@@ -6725,7 +6725,7 @@
       <c r="L122" s="14"/>
       <c r="M122" s="14"/>
       <c r="N122" s="58" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O122" s="58"/>
       <c r="P122" s="58"/>
@@ -6755,7 +6755,7 @@
       <c r="B123" s="14"/>
       <c r="C123" s="14"/>
       <c r="D123" s="54" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E123" s="10"/>
       <c r="F123" s="10"/>
@@ -6767,7 +6767,7 @@
       <c r="L123" s="14"/>
       <c r="M123" s="14"/>
       <c r="N123" s="58" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O123" s="58"/>
       <c r="P123" s="58"/>
@@ -6797,7 +6797,7 @@
       <c r="B124" s="14"/>
       <c r="C124" s="14"/>
       <c r="D124" s="54" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E124" s="10"/>
       <c r="F124" s="10"/>
@@ -6809,7 +6809,7 @@
       <c r="L124" s="14"/>
       <c r="M124" s="14"/>
       <c r="N124" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O124" s="58"/>
       <c r="P124" s="58"/>
@@ -6839,7 +6839,7 @@
       <c r="B125" s="14"/>
       <c r="C125" s="14"/>
       <c r="D125" s="54" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E125" s="10"/>
       <c r="F125" s="10"/>
@@ -6851,7 +6851,7 @@
       <c r="L125" s="14"/>
       <c r="M125" s="14"/>
       <c r="N125" s="58" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O125" s="58"/>
       <c r="P125" s="58"/>
@@ -6881,7 +6881,7 @@
       <c r="B126" s="14"/>
       <c r="C126" s="14"/>
       <c r="D126" s="54" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E126" s="10"/>
       <c r="F126" s="10"/>
@@ -6893,7 +6893,7 @@
       <c r="L126" s="14"/>
       <c r="M126" s="14"/>
       <c r="N126" s="58" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O126" s="58"/>
       <c r="P126" s="58"/>
@@ -6923,7 +6923,7 @@
       <c r="B127" s="14"/>
       <c r="C127" s="14"/>
       <c r="D127" s="54" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E127" s="10"/>
       <c r="F127" s="10"/>
@@ -6935,7 +6935,7 @@
       <c r="L127" s="14"/>
       <c r="M127" s="14"/>
       <c r="N127" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O127" s="58"/>
       <c r="P127" s="58"/>
@@ -6965,7 +6965,7 @@
       <c r="B128" s="14"/>
       <c r="C128" s="14"/>
       <c r="D128" s="40" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
@@ -7005,7 +7005,7 @@
       <c r="B129" s="14"/>
       <c r="C129" s="14"/>
       <c r="D129" s="57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E129" s="57"/>
       <c r="F129" s="57"/>
@@ -7029,7 +7029,7 @@
       <c r="X129" s="14"/>
       <c r="Y129" s="14"/>
       <c r="Z129" s="40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AA129" s="14"/>
       <c r="AB129" s="14"/>
@@ -7047,10 +7047,10 @@
       <c r="B130" s="14"/>
       <c r="C130" s="14"/>
       <c r="D130" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E130" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F130" s="58"/>
       <c r="G130" s="58"/>
@@ -7063,11 +7063,11 @@
       <c r="N130" s="14"/>
       <c r="O130" s="14"/>
       <c r="P130" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q130" s="58"/>
       <c r="R130" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S130" s="58"/>
       <c r="T130" s="58"/>
@@ -7093,10 +7093,10 @@
       <c r="B131" s="14"/>
       <c r="C131" s="14"/>
       <c r="D131" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E131" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F131" s="58"/>
       <c r="G131" s="58"/>
@@ -7109,11 +7109,11 @@
       <c r="N131" s="14"/>
       <c r="O131" s="14"/>
       <c r="P131" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q131" s="58"/>
       <c r="R131" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S131" s="58"/>
       <c r="T131" s="58"/>
@@ -7139,10 +7139,10 @@
       <c r="B132" s="14"/>
       <c r="C132" s="14"/>
       <c r="D132" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E132" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F132" s="58"/>
       <c r="G132" s="58"/>
@@ -7155,11 +7155,11 @@
       <c r="N132" s="14"/>
       <c r="O132" s="14"/>
       <c r="P132" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q132" s="58"/>
       <c r="R132" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S132" s="58"/>
       <c r="T132" s="58"/>
@@ -7185,7 +7185,7 @@
       <c r="B133" s="14"/>
       <c r="C133" s="14"/>
       <c r="D133" s="40" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E133" s="14"/>
       <c r="F133" s="14"/>
@@ -7233,20 +7233,20 @@
       <c r="J134" s="14"/>
       <c r="K134" s="14"/>
       <c r="L134" s="85" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M134" s="85"/>
       <c r="N134" s="85"/>
       <c r="O134" s="85"/>
       <c r="P134" s="85" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q134" s="85"/>
       <c r="R134" s="85"/>
       <c r="S134" s="85"/>
       <c r="T134" s="48"/>
       <c r="U134" s="85" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="V134" s="85"/>
       <c r="W134" s="85"/>
@@ -7269,7 +7269,7 @@
       <c r="B135" s="14"/>
       <c r="C135" s="14"/>
       <c r="D135" s="40" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E135" s="14"/>
       <c r="F135" s="14"/>
@@ -7281,22 +7281,22 @@
         <v>1</v>
       </c>
       <c r="L135" s="65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M135" s="65"/>
       <c r="N135" s="65"/>
       <c r="O135" s="65"/>
       <c r="P135" s="65" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q135" s="65"/>
       <c r="R135" s="65"/>
       <c r="S135" s="65"/>
       <c r="T135" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="U135" s="65" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="V135" s="65"/>
       <c r="W135" s="65"/>
@@ -7329,22 +7329,22 @@
         <v>2</v>
       </c>
       <c r="L136" s="65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M136" s="65"/>
       <c r="N136" s="65"/>
       <c r="O136" s="65"/>
       <c r="P136" s="65" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q136" s="65"/>
       <c r="R136" s="65"/>
       <c r="S136" s="65"/>
       <c r="T136" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="U136" s="65" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="V136" s="65"/>
       <c r="W136" s="65"/>
@@ -7377,22 +7377,22 @@
         <v>3</v>
       </c>
       <c r="L137" s="65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M137" s="65"/>
       <c r="N137" s="65"/>
       <c r="O137" s="65"/>
       <c r="P137" s="65" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q137" s="65"/>
       <c r="R137" s="65"/>
       <c r="S137" s="65"/>
       <c r="T137" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="U137" s="65" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="V137" s="65"/>
       <c r="W137" s="65"/>
@@ -7415,7 +7415,7 @@
       <c r="B138" s="14"/>
       <c r="C138" s="14"/>
       <c r="D138" s="40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E138" s="14"/>
       <c r="F138" s="14"/>
@@ -7425,13 +7425,13 @@
       <c r="J138" s="14"/>
       <c r="K138" s="14"/>
       <c r="L138" s="65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M138" s="65"/>
       <c r="N138" s="65"/>
       <c r="O138" s="65"/>
       <c r="P138" s="65" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q138" s="65"/>
       <c r="R138" s="65"/>
@@ -7722,7 +7722,7 @@
       <c r="AD151" s="12"/>
       <c r="AE151" s="12"/>
       <c r="AF151" s="58" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AG151" s="58"/>
       <c r="AH151" s="58"/>
@@ -7732,7 +7732,7 @@
       <c r="B152" s="12"/>
       <c r="C152" s="12"/>
       <c r="D152" s="89" t="s">
-        <v>2</v>
+        <v>213</v>
       </c>
       <c r="E152" s="89"/>
       <c r="F152" s="89"/>
@@ -7806,7 +7806,7 @@
       <c r="A154" s="14"/>
       <c r="B154" s="14"/>
       <c r="C154" s="40" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D154" s="14"/>
       <c r="E154" s="59">
@@ -7819,7 +7819,7 @@
       <c r="J154" s="59"/>
       <c r="K154" s="59"/>
       <c r="L154" s="60" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M154" s="60"/>
       <c r="N154" s="60"/>
@@ -7832,10 +7832,10 @@
       <c r="U154" s="65"/>
       <c r="V154" s="16"/>
       <c r="W154" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X154" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Y154" s="14"/>
       <c r="Z154" s="14"/>
@@ -7853,7 +7853,7 @@
       <c r="A155" s="14"/>
       <c r="B155" s="14"/>
       <c r="C155" s="40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D155" s="14"/>
       <c r="E155" s="14"/>
@@ -7892,7 +7892,7 @@
       <c r="A156" s="14"/>
       <c r="B156" s="14"/>
       <c r="C156" s="40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D156" s="14"/>
       <c r="E156" s="14"/>
@@ -7900,25 +7900,25 @@
       <c r="G156" s="14"/>
       <c r="H156" s="14"/>
       <c r="I156" s="58" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J156" s="58"/>
       <c r="K156" s="58"/>
       <c r="L156" s="39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M156" s="15"/>
       <c r="N156" s="15"/>
       <c r="O156" s="15"/>
       <c r="P156" s="65" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q156" s="65"/>
       <c r="R156" s="65"/>
       <c r="S156" s="65"/>
       <c r="T156" s="65"/>
       <c r="U156" s="64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V156" s="64"/>
       <c r="W156" s="64"/>
@@ -7930,7 +7930,7 @@
       <c r="AC156" s="64"/>
       <c r="AD156" s="17"/>
       <c r="AE156" s="58" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF156" s="58"/>
       <c r="AG156" s="58"/>
@@ -7941,7 +7941,7 @@
       <c r="A157" s="14"/>
       <c r="B157" s="14"/>
       <c r="C157" s="40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D157" s="14"/>
       <c r="E157" s="14"/>
@@ -7952,7 +7952,7 @@
       <c r="J157" s="14"/>
       <c r="K157" s="14"/>
       <c r="L157" s="58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M157" s="58"/>
       <c r="N157" s="58"/>
@@ -7962,7 +7962,7 @@
       <c r="R157" s="58"/>
       <c r="S157" s="58"/>
       <c r="T157" s="64" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U157" s="64"/>
       <c r="V157" s="64"/>
@@ -7975,7 +7975,7 @@
       <c r="AC157" s="64"/>
       <c r="AD157" s="17"/>
       <c r="AE157" s="58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF157" s="58"/>
       <c r="AG157" s="58"/>
@@ -7986,20 +7986,20 @@
       <c r="A158" s="14"/>
       <c r="B158" s="18"/>
       <c r="C158" s="41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D158" s="18"/>
       <c r="E158" s="19"/>
       <c r="F158" s="19"/>
       <c r="G158" s="83" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H158" s="83"/>
       <c r="I158" s="83"/>
       <c r="J158" s="83"/>
       <c r="K158" s="83"/>
       <c r="L158" s="82" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M158" s="82"/>
       <c r="N158" s="82"/>
@@ -8007,13 +8007,13 @@
       <c r="P158" s="82"/>
       <c r="Q158" s="82"/>
       <c r="R158" s="71" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S158" s="71"/>
       <c r="T158" s="71"/>
       <c r="U158" s="71"/>
       <c r="V158" s="62" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W158" s="62"/>
       <c r="X158" s="62"/>
@@ -8070,7 +8070,7 @@
       <c r="A160" s="14"/>
       <c r="B160" s="15"/>
       <c r="C160" s="58" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D160" s="58"/>
       <c r="E160" s="15"/>
@@ -8109,33 +8109,33 @@
       <c r="A161" s="14"/>
       <c r="B161" s="15"/>
       <c r="C161" s="40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D161" s="15"/>
       <c r="E161" s="15"/>
       <c r="F161" s="15"/>
       <c r="G161" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H161" s="15"/>
       <c r="I161" s="15"/>
       <c r="J161" s="15"/>
       <c r="K161" s="15"/>
       <c r="L161" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M161" s="15"/>
       <c r="N161" s="15"/>
       <c r="O161" s="15"/>
       <c r="P161" s="15"/>
       <c r="Q161" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R161" s="15"/>
       <c r="S161" s="15"/>
       <c r="T161" s="15"/>
       <c r="U161" s="40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="V161" s="15"/>
       <c r="W161" s="15"/>
@@ -8145,7 +8145,7 @@
       <c r="AA161" s="15"/>
       <c r="AB161" s="15"/>
       <c r="AC161" s="65" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AD161" s="65"/>
       <c r="AE161" s="15"/>
@@ -8158,13 +8158,13 @@
       <c r="A162" s="14"/>
       <c r="B162" s="15"/>
       <c r="C162" s="40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D162" s="15"/>
       <c r="E162" s="15"/>
       <c r="F162" s="15"/>
       <c r="G162" s="67" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H162" s="67"/>
       <c r="I162" s="67"/>
@@ -8289,12 +8289,12 @@
       <c r="Q165" s="15"/>
       <c r="R165" s="15"/>
       <c r="S165" s="40" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="T165" s="15"/>
       <c r="U165" s="15"/>
       <c r="V165" s="57" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="W165" s="57"/>
       <c r="X165" s="57"/>
@@ -8305,7 +8305,7 @@
       <c r="AC165" s="15"/>
       <c r="AD165" s="15"/>
       <c r="AE165" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AF165" s="15"/>
       <c r="AG165" s="15"/>
@@ -8316,7 +8316,7 @@
       <c r="A166" s="14"/>
       <c r="B166" s="15"/>
       <c r="C166" s="40" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D166" s="15"/>
       <c r="E166" s="15"/>
@@ -8325,7 +8325,7 @@
       <c r="H166" s="15"/>
       <c r="I166" s="15"/>
       <c r="J166" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K166" s="15"/>
       <c r="L166" s="15"/>
@@ -8336,7 +8336,7 @@
       <c r="Q166" s="15"/>
       <c r="R166" s="15"/>
       <c r="S166" s="40" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T166" s="15"/>
       <c r="U166" s="15"/>
@@ -8350,7 +8350,7 @@
       <c r="AC166" s="15"/>
       <c r="AD166" s="15"/>
       <c r="AE166" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AF166" s="15"/>
       <c r="AG166" s="15"/>
@@ -8361,7 +8361,7 @@
       <c r="A167" s="14"/>
       <c r="B167" s="15"/>
       <c r="C167" s="40" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D167" s="15"/>
       <c r="E167" s="15"/>
@@ -8369,7 +8369,7 @@
       <c r="G167" s="15"/>
       <c r="H167" s="15"/>
       <c r="I167" s="57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J167" s="57"/>
       <c r="K167" s="57"/>
@@ -8381,12 +8381,12 @@
       <c r="Q167" s="15"/>
       <c r="R167" s="15"/>
       <c r="S167" s="40" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="T167" s="15"/>
       <c r="U167" s="15"/>
       <c r="V167" s="57" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="W167" s="57"/>
       <c r="X167" s="57"/>
@@ -8395,11 +8395,11 @@
       <c r="AA167" s="57"/>
       <c r="AB167" s="15"/>
       <c r="AC167" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AD167" s="15"/>
       <c r="AE167" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AF167" s="15"/>
       <c r="AG167" s="15"/>
@@ -8410,7 +8410,7 @@
       <c r="A168" s="14"/>
       <c r="B168" s="15"/>
       <c r="C168" s="40" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D168" s="15"/>
       <c r="E168" s="15"/>
@@ -8450,14 +8450,14 @@
       <c r="B169" s="15"/>
       <c r="C169" s="14"/>
       <c r="D169" s="40" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
       <c r="G169" s="14"/>
       <c r="H169" s="14"/>
       <c r="I169" s="57" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J169" s="57"/>
       <c r="K169" s="57"/>
@@ -8466,21 +8466,21 @@
       <c r="N169" s="57"/>
       <c r="O169" s="57"/>
       <c r="P169" s="85" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q169" s="85"/>
       <c r="S169" s="40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="T169" s="14"/>
       <c r="U169" s="14"/>
       <c r="V169" s="14"/>
       <c r="W169" s="65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="X169" s="65"/>
       <c r="Y169" s="39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z169" s="65"/>
       <c r="AA169" s="65"/>
@@ -8498,7 +8498,7 @@
       <c r="B170" s="15"/>
       <c r="C170" s="14"/>
       <c r="D170" s="40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
@@ -8512,16 +8512,16 @@
       <c r="N170" s="57"/>
       <c r="O170" s="57"/>
       <c r="P170" s="65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q170" s="65"/>
       <c r="S170" s="40" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T170" s="14"/>
       <c r="U170" s="14"/>
       <c r="V170" s="65" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="W170" s="65"/>
       <c r="X170" s="65"/>
@@ -8529,16 +8529,16 @@
       <c r="Z170" s="65"/>
       <c r="AA170" s="65"/>
       <c r="AB170" s="39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC170" s="39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AD170" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AE170" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AF170" s="17"/>
       <c r="AG170" s="17"/>
@@ -8550,16 +8550,16 @@
       <c r="B171" s="15"/>
       <c r="C171" s="14"/>
       <c r="D171" s="40" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
       <c r="G171" s="14"/>
       <c r="H171" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I171" s="93" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J171" s="93"/>
       <c r="K171" s="93"/>
@@ -8567,21 +8567,21 @@
       <c r="M171" s="93"/>
       <c r="N171" s="93"/>
       <c r="O171" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P171" s="65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q171" s="65"/>
       <c r="S171" s="40" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="T171" s="14"/>
       <c r="U171" s="14"/>
       <c r="V171" s="14"/>
       <c r="W171" s="14"/>
       <c r="X171" s="57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Y171" s="57"/>
       <c r="Z171" s="57"/>
@@ -8600,14 +8600,14 @@
       <c r="B172" s="15"/>
       <c r="C172" s="14"/>
       <c r="D172" s="40" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
       <c r="G172" s="14"/>
       <c r="H172" s="14"/>
       <c r="I172" s="57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J172" s="57"/>
       <c r="K172" s="57"/>
@@ -8616,31 +8616,31 @@
       <c r="N172" s="57"/>
       <c r="O172" s="57"/>
       <c r="P172" s="85" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q172" s="85"/>
       <c r="S172" s="40" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="T172" s="14"/>
       <c r="U172" s="15"/>
       <c r="V172" s="15"/>
       <c r="W172" s="15"/>
       <c r="X172" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Y172" s="39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z172" s="65" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AA172" s="65"/>
       <c r="AB172" s="39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC172" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AD172" s="15"/>
       <c r="AE172" s="14"/>
@@ -8654,7 +8654,7 @@
       <c r="B173" s="15"/>
       <c r="C173" s="14"/>
       <c r="D173" s="40" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
@@ -8668,17 +8668,17 @@
       <c r="N173" s="57"/>
       <c r="O173" s="57"/>
       <c r="P173" s="85" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q173" s="85"/>
       <c r="S173" s="40" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="T173" s="14"/>
       <c r="U173" s="14"/>
       <c r="V173" s="14"/>
       <c r="W173" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="X173" s="58"/>
       <c r="Y173" s="58"/>
@@ -8698,7 +8698,7 @@
       <c r="B174" s="15"/>
       <c r="C174" s="14"/>
       <c r="D174" s="40" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
@@ -8715,7 +8715,7 @@
       <c r="Q174" s="14"/>
       <c r="R174" s="14"/>
       <c r="S174" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T174" s="14"/>
       <c r="U174" s="14"/>
@@ -8739,7 +8739,7 @@
       <c r="B175" s="15"/>
       <c r="C175" s="14"/>
       <c r="D175" s="40" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
@@ -8748,16 +8748,16 @@
       <c r="I175" s="14"/>
       <c r="J175" s="14"/>
       <c r="K175" s="65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L175" s="65"/>
       <c r="M175" s="65"/>
       <c r="N175" s="65"/>
       <c r="O175" s="51" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P175" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q175" s="15"/>
       <c r="R175" s="15"/>
@@ -8783,7 +8783,7 @@
       <c r="A176" s="14"/>
       <c r="B176" s="15"/>
       <c r="C176" s="40" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D176" s="14"/>
       <c r="E176" s="14"/>
@@ -8824,13 +8824,13 @@
       <c r="C177" s="14"/>
       <c r="D177" s="14"/>
       <c r="E177" s="65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F177" s="65"/>
       <c r="G177" s="65"/>
       <c r="H177" s="14"/>
       <c r="I177" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J177" s="58"/>
       <c r="K177" s="58"/>
@@ -8863,7 +8863,7 @@
       <c r="A178" s="14"/>
       <c r="B178" s="18"/>
       <c r="C178" s="41" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D178" s="18"/>
       <c r="E178" s="18"/>
@@ -8905,13 +8905,13 @@
         <v>1</v>
       </c>
       <c r="D179" s="49" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E179" s="33"/>
       <c r="F179" s="33"/>
       <c r="G179" s="33"/>
       <c r="H179" s="77" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I179" s="77"/>
       <c r="J179" s="77"/>
@@ -8924,13 +8924,13 @@
       <c r="Q179" s="74"/>
       <c r="R179" s="33"/>
       <c r="S179" s="49" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="T179" s="33"/>
       <c r="U179" s="33"/>
       <c r="V179" s="33"/>
       <c r="W179" s="77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X179" s="77"/>
       <c r="Y179" s="77"/>
@@ -8950,14 +8950,14 @@
       <c r="B180" s="14"/>
       <c r="C180" s="14"/>
       <c r="D180" s="40" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E180" s="14"/>
       <c r="F180" s="14"/>
       <c r="G180" s="14"/>
       <c r="H180" s="14"/>
       <c r="I180" s="57" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J180" s="57"/>
       <c r="K180" s="57"/>
@@ -8966,12 +8966,12 @@
       <c r="N180" s="57"/>
       <c r="O180" s="57"/>
       <c r="P180" s="85" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q180" s="85"/>
       <c r="R180" s="14"/>
       <c r="S180" s="40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T180" s="14"/>
       <c r="U180" s="14"/>
@@ -8985,7 +8985,7 @@
       <c r="AC180" s="58"/>
       <c r="AD180" s="14"/>
       <c r="AE180" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AF180" s="14"/>
       <c r="AG180" s="14"/>
@@ -8997,14 +8997,14 @@
       <c r="B181" s="14"/>
       <c r="C181" s="14"/>
       <c r="D181" s="40" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E181" s="14"/>
       <c r="F181" s="14"/>
       <c r="G181" s="14"/>
       <c r="H181" s="14"/>
       <c r="I181" s="65" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J181" s="65"/>
       <c r="K181" s="65"/>
@@ -9015,7 +9015,7 @@
       <c r="P181" s="65"/>
       <c r="Q181" s="65"/>
       <c r="S181" s="40" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="T181" s="14"/>
       <c r="U181" s="14"/>
@@ -9039,14 +9039,14 @@
       <c r="B182" s="14"/>
       <c r="C182" s="14"/>
       <c r="D182" s="40" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E182" s="14"/>
       <c r="F182" s="14"/>
       <c r="G182" s="14"/>
       <c r="H182" s="14"/>
       <c r="I182" s="57" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J182" s="57"/>
       <c r="K182" s="57"/>
@@ -9055,16 +9055,16 @@
       <c r="N182" s="57"/>
       <c r="O182" s="57"/>
       <c r="P182" s="85" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q182" s="85"/>
       <c r="R182" s="14"/>
       <c r="S182" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T182" s="58"/>
       <c r="U182" s="80" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V182" s="80"/>
       <c r="W182" s="80"/>
@@ -9086,7 +9086,7 @@
       <c r="B183" s="14"/>
       <c r="C183" s="14"/>
       <c r="D183" s="41" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E183" s="18"/>
       <c r="F183" s="18"/>
@@ -9100,7 +9100,7 @@
       <c r="N183" s="95"/>
       <c r="O183" s="95"/>
       <c r="P183" s="96" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q183" s="96"/>
       <c r="R183" s="18"/>
@@ -9129,13 +9129,13 @@
         <v>2</v>
       </c>
       <c r="D184" s="40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E184" s="14"/>
       <c r="F184" s="14"/>
       <c r="G184" s="14"/>
       <c r="H184" s="77" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I184" s="77"/>
       <c r="J184" s="77"/>
@@ -9147,13 +9147,13 @@
       <c r="P184" s="74"/>
       <c r="Q184" s="74"/>
       <c r="S184" s="40" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="T184" s="14"/>
       <c r="U184" s="14"/>
       <c r="V184" s="14"/>
       <c r="W184" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="X184" s="58"/>
       <c r="Y184" s="58"/>
@@ -9173,7 +9173,7 @@
       <c r="B185" s="14"/>
       <c r="C185" s="14"/>
       <c r="D185" s="40" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E185" s="14"/>
       <c r="F185" s="14"/>
@@ -9187,11 +9187,11 @@
       <c r="N185" s="57"/>
       <c r="O185" s="57"/>
       <c r="P185" s="85" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q185" s="85"/>
       <c r="S185" s="40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T185" s="14"/>
       <c r="U185" s="14"/>
@@ -9205,7 +9205,7 @@
       <c r="AC185" s="58"/>
       <c r="AD185" s="14"/>
       <c r="AE185" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AF185" s="14"/>
       <c r="AG185" s="14"/>
@@ -9217,14 +9217,14 @@
       <c r="B186" s="14"/>
       <c r="C186" s="14"/>
       <c r="D186" s="40" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E186" s="14"/>
       <c r="F186" s="14"/>
       <c r="G186" s="14"/>
       <c r="H186" s="14"/>
       <c r="I186" s="65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J186" s="65"/>
       <c r="K186" s="65"/>
@@ -9235,7 +9235,7 @@
       <c r="P186" s="65"/>
       <c r="Q186" s="65"/>
       <c r="S186" s="40" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="T186" s="14"/>
       <c r="U186" s="14"/>
@@ -9259,7 +9259,7 @@
       <c r="B187" s="14"/>
       <c r="C187" s="14"/>
       <c r="D187" s="40" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E187" s="14"/>
       <c r="F187" s="14"/>
@@ -9273,16 +9273,16 @@
       <c r="N187" s="57"/>
       <c r="O187" s="57"/>
       <c r="P187" s="85" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q187" s="85"/>
       <c r="R187" s="14"/>
       <c r="S187" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T187" s="58"/>
       <c r="U187" s="80" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V187" s="80"/>
       <c r="W187" s="80"/>
@@ -9304,7 +9304,7 @@
       <c r="B188" s="14"/>
       <c r="C188" s="14"/>
       <c r="D188" s="41" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E188" s="18"/>
       <c r="F188" s="18"/>
@@ -9318,7 +9318,7 @@
       <c r="N188" s="95"/>
       <c r="O188" s="95"/>
       <c r="P188" s="96" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q188" s="96"/>
       <c r="R188" s="18"/>
@@ -9347,13 +9347,13 @@
         <v>3</v>
       </c>
       <c r="D189" s="40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E189" s="14"/>
       <c r="F189" s="14"/>
       <c r="G189" s="14"/>
       <c r="H189" s="77" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I189" s="77"/>
       <c r="J189" s="77"/>
@@ -9365,13 +9365,13 @@
       <c r="P189" s="74"/>
       <c r="Q189" s="74"/>
       <c r="S189" s="40" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="T189" s="14"/>
       <c r="U189" s="14"/>
       <c r="V189" s="14"/>
       <c r="W189" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="X189" s="58"/>
       <c r="Y189" s="58"/>
@@ -9391,7 +9391,7 @@
       <c r="B190" s="14"/>
       <c r="C190" s="14"/>
       <c r="D190" s="40" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E190" s="14"/>
       <c r="F190" s="14"/>
@@ -9405,11 +9405,11 @@
       <c r="N190" s="57"/>
       <c r="O190" s="57"/>
       <c r="P190" s="85" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q190" s="85"/>
       <c r="S190" s="40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T190" s="14"/>
       <c r="U190" s="14"/>
@@ -9423,7 +9423,7 @@
       <c r="AC190" s="58"/>
       <c r="AD190" s="14"/>
       <c r="AE190" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AF190" s="14"/>
       <c r="AG190" s="14"/>
@@ -9435,14 +9435,14 @@
       <c r="B191" s="14"/>
       <c r="C191" s="14"/>
       <c r="D191" s="40" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E191" s="14"/>
       <c r="F191" s="14"/>
       <c r="G191" s="14"/>
       <c r="H191" s="14"/>
       <c r="I191" s="65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J191" s="65"/>
       <c r="K191" s="65"/>
@@ -9453,7 +9453,7 @@
       <c r="P191" s="65"/>
       <c r="Q191" s="65"/>
       <c r="S191" s="40" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="T191" s="14"/>
       <c r="U191" s="14"/>
@@ -9477,7 +9477,7 @@
       <c r="B192" s="14"/>
       <c r="C192" s="14"/>
       <c r="D192" s="40" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E192" s="14"/>
       <c r="F192" s="14"/>
@@ -9491,16 +9491,16 @@
       <c r="N192" s="57"/>
       <c r="O192" s="57"/>
       <c r="P192" s="85" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q192" s="85"/>
       <c r="R192" s="14"/>
       <c r="S192" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T192" s="58"/>
       <c r="U192" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V192" s="58"/>
       <c r="W192" s="58"/>
@@ -9522,7 +9522,7 @@
       <c r="B193" s="18"/>
       <c r="C193" s="18"/>
       <c r="D193" s="41" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E193" s="18"/>
       <c r="F193" s="18"/>
@@ -9536,7 +9536,7 @@
       <c r="N193" s="95"/>
       <c r="O193" s="95"/>
       <c r="P193" s="96" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q193" s="96"/>
       <c r="R193" s="18"/>
@@ -9565,13 +9565,13 @@
         <v>4</v>
       </c>
       <c r="D194" s="40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E194" s="14"/>
       <c r="F194" s="14"/>
       <c r="G194" s="14"/>
       <c r="H194" s="77" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I194" s="77"/>
       <c r="J194" s="77"/>
@@ -9583,13 +9583,13 @@
       <c r="P194" s="74"/>
       <c r="Q194" s="74"/>
       <c r="S194" s="40" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="T194" s="14"/>
       <c r="U194" s="14"/>
       <c r="V194" s="14"/>
       <c r="W194" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="X194" s="58"/>
       <c r="Y194" s="58"/>
@@ -9609,7 +9609,7 @@
       <c r="B195" s="14"/>
       <c r="C195" s="14"/>
       <c r="D195" s="40" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E195" s="14"/>
       <c r="F195" s="14"/>
@@ -9623,11 +9623,11 @@
       <c r="N195" s="57"/>
       <c r="O195" s="57"/>
       <c r="P195" s="85" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q195" s="85"/>
       <c r="S195" s="40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T195" s="14"/>
       <c r="U195" s="14"/>
@@ -9641,7 +9641,7 @@
       <c r="AC195" s="58"/>
       <c r="AD195" s="14"/>
       <c r="AE195" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AF195" s="14"/>
       <c r="AG195" s="14"/>
@@ -9653,14 +9653,14 @@
       <c r="B196" s="14"/>
       <c r="C196" s="14"/>
       <c r="D196" s="40" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E196" s="14"/>
       <c r="F196" s="14"/>
       <c r="G196" s="14"/>
       <c r="H196" s="14"/>
       <c r="I196" s="65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J196" s="65"/>
       <c r="K196" s="65"/>
@@ -9671,7 +9671,7 @@
       <c r="P196" s="65"/>
       <c r="Q196" s="65"/>
       <c r="S196" s="40" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="T196" s="14"/>
       <c r="U196" s="14"/>
@@ -9695,7 +9695,7 @@
       <c r="B197" s="14"/>
       <c r="C197" s="14"/>
       <c r="D197" s="40" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E197" s="14"/>
       <c r="F197" s="14"/>
@@ -9709,16 +9709,16 @@
       <c r="N197" s="57"/>
       <c r="O197" s="57"/>
       <c r="P197" s="85" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q197" s="85"/>
       <c r="R197" s="14"/>
       <c r="S197" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T197" s="58"/>
       <c r="U197" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V197" s="58"/>
       <c r="W197" s="58"/>
@@ -9740,7 +9740,7 @@
       <c r="B198" s="14"/>
       <c r="C198" s="14"/>
       <c r="D198" s="41" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E198" s="18"/>
       <c r="F198" s="18"/>
@@ -9754,7 +9754,7 @@
       <c r="N198" s="95"/>
       <c r="O198" s="95"/>
       <c r="P198" s="96" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q198" s="96"/>
       <c r="R198" s="18"/>
@@ -9783,13 +9783,13 @@
         <v>5</v>
       </c>
       <c r="D199" s="40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E199" s="14"/>
       <c r="F199" s="14"/>
       <c r="G199" s="14"/>
       <c r="H199" s="77" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I199" s="77"/>
       <c r="J199" s="77"/>
@@ -9801,13 +9801,13 @@
       <c r="P199" s="74"/>
       <c r="Q199" s="74"/>
       <c r="S199" s="40" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="T199" s="14"/>
       <c r="U199" s="14"/>
       <c r="V199" s="14"/>
       <c r="W199" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="X199" s="58"/>
       <c r="Y199" s="58"/>
@@ -9827,7 +9827,7 @@
       <c r="B200" s="14"/>
       <c r="C200" s="14"/>
       <c r="D200" s="40" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E200" s="14"/>
       <c r="F200" s="14"/>
@@ -9841,11 +9841,11 @@
       <c r="N200" s="57"/>
       <c r="O200" s="57"/>
       <c r="P200" s="85" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q200" s="85"/>
       <c r="S200" s="40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T200" s="14"/>
       <c r="U200" s="14"/>
@@ -9859,7 +9859,7 @@
       <c r="AC200" s="58"/>
       <c r="AD200" s="14"/>
       <c r="AE200" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AF200" s="14"/>
       <c r="AG200" s="14"/>
@@ -9871,14 +9871,14 @@
       <c r="B201" s="14"/>
       <c r="C201" s="14"/>
       <c r="D201" s="40" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E201" s="14"/>
       <c r="F201" s="14"/>
       <c r="G201" s="14"/>
       <c r="H201" s="14"/>
       <c r="I201" s="65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J201" s="65"/>
       <c r="K201" s="65"/>
@@ -9889,7 +9889,7 @@
       <c r="P201" s="65"/>
       <c r="Q201" s="65"/>
       <c r="S201" s="40" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="T201" s="14"/>
       <c r="U201" s="14"/>
@@ -9913,7 +9913,7 @@
       <c r="B202" s="14"/>
       <c r="C202" s="14"/>
       <c r="D202" s="40" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E202" s="14"/>
       <c r="F202" s="14"/>
@@ -9927,16 +9927,16 @@
       <c r="N202" s="57"/>
       <c r="O202" s="57"/>
       <c r="P202" s="85" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q202" s="85"/>
       <c r="R202" s="14"/>
       <c r="S202" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T202" s="58"/>
       <c r="U202" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V202" s="58"/>
       <c r="W202" s="58"/>
@@ -9958,7 +9958,7 @@
       <c r="B203" s="14"/>
       <c r="C203" s="14"/>
       <c r="D203" s="40" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E203" s="14"/>
       <c r="F203" s="14"/>
@@ -9972,7 +9972,7 @@
       <c r="N203" s="57"/>
       <c r="O203" s="57"/>
       <c r="P203" s="85" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q203" s="85"/>
       <c r="R203" s="14"/>
@@ -10846,7 +10846,7 @@
       <c r="AD226" s="12"/>
       <c r="AE226" s="12"/>
       <c r="AF226" s="58" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AG226" s="58"/>
       <c r="AH226" s="58"/>
@@ -10856,7 +10856,7 @@
       <c r="B227" s="12"/>
       <c r="C227" s="12"/>
       <c r="D227" s="89" t="s">
-        <v>2</v>
+        <v>213</v>
       </c>
       <c r="E227" s="89"/>
       <c r="F227" s="89"/>
@@ -10930,7 +10930,7 @@
       <c r="A229" s="14"/>
       <c r="B229" s="14"/>
       <c r="C229" s="40" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D229" s="14"/>
       <c r="E229" s="59">
@@ -10943,7 +10943,7 @@
       <c r="J229" s="59"/>
       <c r="K229" s="59"/>
       <c r="L229" s="60" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M229" s="60"/>
       <c r="N229" s="60"/>
@@ -10956,10 +10956,10 @@
       <c r="U229" s="65"/>
       <c r="V229" s="16"/>
       <c r="W229" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X229" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Y229" s="14"/>
       <c r="Z229" s="14"/>
@@ -10977,7 +10977,7 @@
       <c r="A230" s="14"/>
       <c r="B230" s="14"/>
       <c r="C230" s="40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D230" s="14"/>
       <c r="E230" s="14"/>
@@ -11016,7 +11016,7 @@
       <c r="A231" s="14"/>
       <c r="B231" s="14"/>
       <c r="C231" s="40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D231" s="14"/>
       <c r="E231" s="14"/>
@@ -11024,25 +11024,25 @@
       <c r="G231" s="14"/>
       <c r="H231" s="14"/>
       <c r="I231" s="58" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J231" s="58"/>
       <c r="K231" s="58"/>
       <c r="L231" s="39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M231" s="15"/>
       <c r="N231" s="15"/>
       <c r="O231" s="15"/>
       <c r="P231" s="65" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q231" s="65"/>
       <c r="R231" s="65"/>
       <c r="S231" s="65"/>
       <c r="T231" s="65"/>
       <c r="U231" s="64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V231" s="64"/>
       <c r="W231" s="64"/>
@@ -11054,7 +11054,7 @@
       <c r="AC231" s="64"/>
       <c r="AD231" s="17"/>
       <c r="AE231" s="58" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF231" s="58"/>
       <c r="AG231" s="58"/>
@@ -11065,7 +11065,7 @@
       <c r="A232" s="14"/>
       <c r="B232" s="14"/>
       <c r="C232" s="40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D232" s="14"/>
       <c r="E232" s="14"/>
@@ -11076,7 +11076,7 @@
       <c r="J232" s="14"/>
       <c r="K232" s="14"/>
       <c r="L232" s="58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M232" s="58"/>
       <c r="N232" s="58"/>
@@ -11086,7 +11086,7 @@
       <c r="R232" s="58"/>
       <c r="S232" s="58"/>
       <c r="T232" s="64" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U232" s="64"/>
       <c r="V232" s="64"/>
@@ -11099,7 +11099,7 @@
       <c r="AC232" s="64"/>
       <c r="AD232" s="17"/>
       <c r="AE232" s="58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF232" s="58"/>
       <c r="AG232" s="58"/>
@@ -11110,20 +11110,20 @@
       <c r="A233" s="14"/>
       <c r="B233" s="18"/>
       <c r="C233" s="41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D233" s="18"/>
       <c r="E233" s="19"/>
       <c r="F233" s="19"/>
       <c r="G233" s="83" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H233" s="83"/>
       <c r="I233" s="83"/>
       <c r="J233" s="83"/>
       <c r="K233" s="83"/>
       <c r="L233" s="82" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M233" s="82"/>
       <c r="N233" s="82"/>
@@ -11131,13 +11131,13 @@
       <c r="P233" s="82"/>
       <c r="Q233" s="82"/>
       <c r="R233" s="71" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S233" s="71"/>
       <c r="T233" s="71"/>
       <c r="U233" s="71"/>
       <c r="V233" s="62" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W233" s="62"/>
       <c r="X233" s="62"/>
@@ -11194,7 +11194,7 @@
       <c r="A235" s="14"/>
       <c r="B235" s="15"/>
       <c r="C235" s="58" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D235" s="58"/>
       <c r="E235" s="15"/>
@@ -11233,33 +11233,33 @@
       <c r="A236" s="14"/>
       <c r="B236" s="15"/>
       <c r="C236" s="40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D236" s="15"/>
       <c r="E236" s="15"/>
       <c r="F236" s="15"/>
       <c r="G236" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H236" s="15"/>
       <c r="I236" s="15"/>
       <c r="J236" s="15"/>
       <c r="K236" s="15"/>
       <c r="L236" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M236" s="15"/>
       <c r="N236" s="15"/>
       <c r="O236" s="15"/>
       <c r="P236" s="15"/>
       <c r="Q236" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R236" s="15"/>
       <c r="S236" s="15"/>
       <c r="T236" s="15"/>
       <c r="U236" s="40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="V236" s="15"/>
       <c r="W236" s="15"/>
@@ -11269,7 +11269,7 @@
       <c r="AA236" s="15"/>
       <c r="AB236" s="15"/>
       <c r="AC236" s="65" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AD236" s="65"/>
       <c r="AE236" s="15"/>
@@ -11282,13 +11282,13 @@
       <c r="A237" s="14"/>
       <c r="B237" s="15"/>
       <c r="C237" s="40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D237" s="15"/>
       <c r="E237" s="15"/>
       <c r="F237" s="15"/>
       <c r="G237" s="67" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H237" s="67"/>
       <c r="I237" s="67"/>
@@ -11413,12 +11413,12 @@
       <c r="Q240" s="15"/>
       <c r="R240" s="15"/>
       <c r="S240" s="40" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="T240" s="15"/>
       <c r="U240" s="15"/>
       <c r="V240" s="57" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="W240" s="57"/>
       <c r="X240" s="57"/>
@@ -11429,7 +11429,7 @@
       <c r="AC240" s="15"/>
       <c r="AD240" s="15"/>
       <c r="AE240" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AF240" s="15"/>
       <c r="AG240" s="15"/>
@@ -11440,7 +11440,7 @@
       <c r="A241" s="14"/>
       <c r="B241" s="15"/>
       <c r="C241" s="40" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D241" s="15"/>
       <c r="E241" s="15"/>
@@ -11449,7 +11449,7 @@
       <c r="H241" s="15"/>
       <c r="I241" s="15"/>
       <c r="J241" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K241" s="15"/>
       <c r="L241" s="15"/>
@@ -11460,7 +11460,7 @@
       <c r="Q241" s="15"/>
       <c r="R241" s="15"/>
       <c r="S241" s="40" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T241" s="15"/>
       <c r="U241" s="15"/>
@@ -11474,7 +11474,7 @@
       <c r="AC241" s="15"/>
       <c r="AD241" s="15"/>
       <c r="AE241" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AF241" s="15"/>
       <c r="AG241" s="15"/>
@@ -11485,7 +11485,7 @@
       <c r="A242" s="14"/>
       <c r="B242" s="15"/>
       <c r="C242" s="40" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D242" s="15"/>
       <c r="E242" s="15"/>
@@ -11493,7 +11493,7 @@
       <c r="G242" s="15"/>
       <c r="H242" s="15"/>
       <c r="I242" s="57" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J242" s="57"/>
       <c r="K242" s="57"/>
@@ -11505,12 +11505,12 @@
       <c r="Q242" s="15"/>
       <c r="R242" s="15"/>
       <c r="S242" s="40" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="T242" s="15"/>
       <c r="U242" s="15"/>
       <c r="V242" s="57" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="W242" s="57"/>
       <c r="X242" s="57"/>
@@ -11519,11 +11519,11 @@
       <c r="AA242" s="57"/>
       <c r="AB242" s="15"/>
       <c r="AC242" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AD242" s="15"/>
       <c r="AE242" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AF242" s="15"/>
       <c r="AG242" s="15"/>
@@ -11534,7 +11534,7 @@
       <c r="A243" s="14"/>
       <c r="B243" s="15"/>
       <c r="C243" s="40" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D243" s="15"/>
       <c r="E243" s="15"/>
@@ -11574,14 +11574,14 @@
       <c r="B244" s="15"/>
       <c r="C244" s="14"/>
       <c r="D244" s="40" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E244" s="1"/>
       <c r="F244" s="1"/>
       <c r="G244" s="14"/>
       <c r="H244" s="14"/>
       <c r="I244" s="57" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J244" s="57"/>
       <c r="K244" s="57"/>
@@ -11590,21 +11590,21 @@
       <c r="N244" s="57"/>
       <c r="O244" s="57"/>
       <c r="P244" s="85" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q244" s="85"/>
       <c r="S244" s="40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="T244" s="14"/>
       <c r="U244" s="14"/>
       <c r="V244" s="14"/>
       <c r="W244" s="65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="X244" s="65"/>
       <c r="Y244" s="39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z244" s="65"/>
       <c r="AA244" s="65"/>
@@ -11622,7 +11622,7 @@
       <c r="B245" s="15"/>
       <c r="C245" s="14"/>
       <c r="D245" s="40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E245" s="1"/>
       <c r="F245" s="1"/>
@@ -11636,16 +11636,16 @@
       <c r="N245" s="57"/>
       <c r="O245" s="57"/>
       <c r="P245" s="65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q245" s="65"/>
       <c r="S245" s="40" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T245" s="14"/>
       <c r="U245" s="14"/>
       <c r="V245" s="65" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="W245" s="65"/>
       <c r="X245" s="65"/>
@@ -11653,16 +11653,16 @@
       <c r="Z245" s="65"/>
       <c r="AA245" s="65"/>
       <c r="AB245" s="39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC245" s="39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AD245" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AE245" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AF245" s="17"/>
       <c r="AG245" s="17"/>
@@ -11674,16 +11674,16 @@
       <c r="B246" s="15"/>
       <c r="C246" s="14"/>
       <c r="D246" s="40" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E246" s="1"/>
       <c r="F246" s="1"/>
       <c r="G246" s="14"/>
       <c r="H246" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I246" s="93" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J246" s="93"/>
       <c r="K246" s="93"/>
@@ -11691,21 +11691,21 @@
       <c r="M246" s="93"/>
       <c r="N246" s="93"/>
       <c r="O246" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P246" s="65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q246" s="65"/>
       <c r="S246" s="40" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="T246" s="14"/>
       <c r="U246" s="14"/>
       <c r="V246" s="14"/>
       <c r="W246" s="14"/>
       <c r="X246" s="57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Y246" s="57"/>
       <c r="Z246" s="57"/>
@@ -11724,14 +11724,14 @@
       <c r="B247" s="15"/>
       <c r="C247" s="14"/>
       <c r="D247" s="40" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E247" s="1"/>
       <c r="F247" s="1"/>
       <c r="G247" s="14"/>
       <c r="H247" s="14"/>
       <c r="I247" s="57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J247" s="57"/>
       <c r="K247" s="57"/>
@@ -11740,31 +11740,31 @@
       <c r="N247" s="57"/>
       <c r="O247" s="57"/>
       <c r="P247" s="85" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q247" s="85"/>
       <c r="S247" s="40" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="T247" s="14"/>
       <c r="U247" s="15"/>
       <c r="V247" s="15"/>
       <c r="W247" s="15"/>
       <c r="X247" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Y247" s="39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z247" s="65" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AA247" s="65"/>
       <c r="AB247" s="39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC247" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AD247" s="15"/>
       <c r="AE247" s="14"/>
@@ -11778,7 +11778,7 @@
       <c r="B248" s="15"/>
       <c r="C248" s="14"/>
       <c r="D248" s="40" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E248" s="1"/>
       <c r="F248" s="1"/>
@@ -11792,17 +11792,17 @@
       <c r="N248" s="57"/>
       <c r="O248" s="57"/>
       <c r="P248" s="85" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q248" s="85"/>
       <c r="S248" s="40" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="T248" s="14"/>
       <c r="U248" s="14"/>
       <c r="V248" s="14"/>
       <c r="W248" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="X248" s="58"/>
       <c r="Y248" s="58"/>
@@ -11822,7 +11822,7 @@
       <c r="B249" s="15"/>
       <c r="C249" s="14"/>
       <c r="D249" s="40" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E249" s="1"/>
       <c r="F249" s="1"/>
@@ -11839,7 +11839,7 @@
       <c r="Q249" s="14"/>
       <c r="R249" s="14"/>
       <c r="S249" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T249" s="14"/>
       <c r="U249" s="14"/>
@@ -11863,7 +11863,7 @@
       <c r="B250" s="15"/>
       <c r="C250" s="14"/>
       <c r="D250" s="40" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E250" s="1"/>
       <c r="F250" s="1"/>
@@ -11872,16 +11872,16 @@
       <c r="I250" s="14"/>
       <c r="J250" s="14"/>
       <c r="K250" s="65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L250" s="65"/>
       <c r="M250" s="65"/>
       <c r="N250" s="65"/>
       <c r="O250" s="51" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P250" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q250" s="15"/>
       <c r="R250" s="15"/>
@@ -11907,7 +11907,7 @@
       <c r="A251" s="14"/>
       <c r="B251" s="15"/>
       <c r="C251" s="40" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D251" s="14"/>
       <c r="E251" s="14"/>
@@ -11948,13 +11948,13 @@
       <c r="C252" s="14"/>
       <c r="D252" s="14"/>
       <c r="E252" s="65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F252" s="65"/>
       <c r="G252" s="65"/>
       <c r="H252" s="14"/>
       <c r="I252" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J252" s="58"/>
       <c r="K252" s="58"/>
@@ -11987,7 +11987,7 @@
       <c r="A253" s="14"/>
       <c r="B253" s="18"/>
       <c r="C253" s="41" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D253" s="18"/>
       <c r="E253" s="18"/>
@@ -12029,13 +12029,13 @@
         <v>1</v>
       </c>
       <c r="D254" s="49" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E254" s="33"/>
       <c r="F254" s="33"/>
       <c r="G254" s="33"/>
       <c r="H254" s="77" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I254" s="77"/>
       <c r="J254" s="77"/>
@@ -12048,13 +12048,13 @@
       <c r="Q254" s="74"/>
       <c r="R254" s="33"/>
       <c r="S254" s="49" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="T254" s="33"/>
       <c r="U254" s="33"/>
       <c r="V254" s="33"/>
       <c r="W254" s="77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X254" s="77"/>
       <c r="Y254" s="77"/>
@@ -12074,14 +12074,14 @@
       <c r="B255" s="14"/>
       <c r="C255" s="14"/>
       <c r="D255" s="40" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E255" s="14"/>
       <c r="F255" s="14"/>
       <c r="G255" s="14"/>
       <c r="H255" s="14"/>
       <c r="I255" s="57" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J255" s="57"/>
       <c r="K255" s="57"/>
@@ -12090,12 +12090,12 @@
       <c r="N255" s="57"/>
       <c r="O255" s="57"/>
       <c r="P255" s="85" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q255" s="85"/>
       <c r="R255" s="14"/>
       <c r="S255" s="40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T255" s="14"/>
       <c r="U255" s="14"/>
@@ -12109,7 +12109,7 @@
       <c r="AC255" s="58"/>
       <c r="AD255" s="14"/>
       <c r="AE255" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AF255" s="14"/>
       <c r="AG255" s="14"/>
@@ -12121,14 +12121,14 @@
       <c r="B256" s="14"/>
       <c r="C256" s="14"/>
       <c r="D256" s="40" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E256" s="14"/>
       <c r="F256" s="14"/>
       <c r="G256" s="14"/>
       <c r="H256" s="14"/>
       <c r="I256" s="65" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J256" s="65"/>
       <c r="K256" s="65"/>
@@ -12139,7 +12139,7 @@
       <c r="P256" s="65"/>
       <c r="Q256" s="65"/>
       <c r="S256" s="40" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="T256" s="14"/>
       <c r="U256" s="14"/>
@@ -12163,14 +12163,14 @@
       <c r="B257" s="14"/>
       <c r="C257" s="14"/>
       <c r="D257" s="40" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E257" s="14"/>
       <c r="F257" s="14"/>
       <c r="G257" s="14"/>
       <c r="H257" s="14"/>
       <c r="I257" s="57" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J257" s="57"/>
       <c r="K257" s="57"/>
@@ -12179,16 +12179,16 @@
       <c r="N257" s="57"/>
       <c r="O257" s="57"/>
       <c r="P257" s="85" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q257" s="85"/>
       <c r="R257" s="14"/>
       <c r="S257" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T257" s="58"/>
       <c r="U257" s="80" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V257" s="80"/>
       <c r="W257" s="80"/>
@@ -12210,7 +12210,7 @@
       <c r="B258" s="14"/>
       <c r="C258" s="14"/>
       <c r="D258" s="41" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E258" s="18"/>
       <c r="F258" s="18"/>
@@ -12224,7 +12224,7 @@
       <c r="N258" s="95"/>
       <c r="O258" s="95"/>
       <c r="P258" s="96" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q258" s="96"/>
       <c r="R258" s="18"/>
@@ -12253,13 +12253,13 @@
         <v>2</v>
       </c>
       <c r="D259" s="40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E259" s="14"/>
       <c r="F259" s="14"/>
       <c r="G259" s="14"/>
       <c r="H259" s="77" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I259" s="77"/>
       <c r="J259" s="77"/>
@@ -12271,13 +12271,13 @@
       <c r="P259" s="74"/>
       <c r="Q259" s="74"/>
       <c r="S259" s="40" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="T259" s="14"/>
       <c r="U259" s="14"/>
       <c r="V259" s="14"/>
       <c r="W259" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="X259" s="58"/>
       <c r="Y259" s="58"/>
@@ -12297,7 +12297,7 @@
       <c r="B260" s="14"/>
       <c r="C260" s="14"/>
       <c r="D260" s="40" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E260" s="14"/>
       <c r="F260" s="14"/>
@@ -12311,11 +12311,11 @@
       <c r="N260" s="57"/>
       <c r="O260" s="57"/>
       <c r="P260" s="85" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q260" s="85"/>
       <c r="S260" s="40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T260" s="14"/>
       <c r="U260" s="14"/>
@@ -12329,7 +12329,7 @@
       <c r="AC260" s="58"/>
       <c r="AD260" s="14"/>
       <c r="AE260" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AF260" s="14"/>
       <c r="AG260" s="14"/>
@@ -12341,14 +12341,14 @@
       <c r="B261" s="14"/>
       <c r="C261" s="14"/>
       <c r="D261" s="40" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E261" s="14"/>
       <c r="F261" s="14"/>
       <c r="G261" s="14"/>
       <c r="H261" s="14"/>
       <c r="I261" s="65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J261" s="65"/>
       <c r="K261" s="65"/>
@@ -12359,7 +12359,7 @@
       <c r="P261" s="65"/>
       <c r="Q261" s="65"/>
       <c r="S261" s="40" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="T261" s="14"/>
       <c r="U261" s="14"/>
@@ -12383,7 +12383,7 @@
       <c r="B262" s="14"/>
       <c r="C262" s="14"/>
       <c r="D262" s="40" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E262" s="14"/>
       <c r="F262" s="14"/>
@@ -12397,16 +12397,16 @@
       <c r="N262" s="57"/>
       <c r="O262" s="57"/>
       <c r="P262" s="85" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q262" s="85"/>
       <c r="R262" s="14"/>
       <c r="S262" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T262" s="58"/>
       <c r="U262" s="80" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V262" s="80"/>
       <c r="W262" s="80"/>
@@ -12428,7 +12428,7 @@
       <c r="B263" s="14"/>
       <c r="C263" s="14"/>
       <c r="D263" s="41" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E263" s="18"/>
       <c r="F263" s="18"/>
@@ -12442,7 +12442,7 @@
       <c r="N263" s="95"/>
       <c r="O263" s="95"/>
       <c r="P263" s="96" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q263" s="96"/>
       <c r="R263" s="18"/>
@@ -12471,13 +12471,13 @@
         <v>3</v>
       </c>
       <c r="D264" s="40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E264" s="14"/>
       <c r="F264" s="14"/>
       <c r="G264" s="14"/>
       <c r="H264" s="77" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I264" s="77"/>
       <c r="J264" s="77"/>
@@ -12489,13 +12489,13 @@
       <c r="P264" s="74"/>
       <c r="Q264" s="74"/>
       <c r="S264" s="40" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="T264" s="14"/>
       <c r="U264" s="14"/>
       <c r="V264" s="14"/>
       <c r="W264" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="X264" s="58"/>
       <c r="Y264" s="58"/>
@@ -12515,7 +12515,7 @@
       <c r="B265" s="14"/>
       <c r="C265" s="14"/>
       <c r="D265" s="40" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E265" s="14"/>
       <c r="F265" s="14"/>
@@ -12529,11 +12529,11 @@
       <c r="N265" s="57"/>
       <c r="O265" s="57"/>
       <c r="P265" s="85" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q265" s="85"/>
       <c r="S265" s="40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T265" s="14"/>
       <c r="U265" s="14"/>
@@ -12547,7 +12547,7 @@
       <c r="AC265" s="58"/>
       <c r="AD265" s="14"/>
       <c r="AE265" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AF265" s="14"/>
       <c r="AG265" s="14"/>
@@ -12559,14 +12559,14 @@
       <c r="B266" s="14"/>
       <c r="C266" s="14"/>
       <c r="D266" s="40" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E266" s="14"/>
       <c r="F266" s="14"/>
       <c r="G266" s="14"/>
       <c r="H266" s="14"/>
       <c r="I266" s="65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J266" s="65"/>
       <c r="K266" s="65"/>
@@ -12577,7 +12577,7 @@
       <c r="P266" s="65"/>
       <c r="Q266" s="65"/>
       <c r="S266" s="40" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="T266" s="14"/>
       <c r="U266" s="14"/>
@@ -12601,7 +12601,7 @@
       <c r="B267" s="14"/>
       <c r="C267" s="14"/>
       <c r="D267" s="40" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E267" s="14"/>
       <c r="F267" s="14"/>
@@ -12615,16 +12615,16 @@
       <c r="N267" s="57"/>
       <c r="O267" s="57"/>
       <c r="P267" s="85" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q267" s="85"/>
       <c r="R267" s="14"/>
       <c r="S267" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T267" s="58"/>
       <c r="U267" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V267" s="58"/>
       <c r="W267" s="58"/>
@@ -12646,7 +12646,7 @@
       <c r="B268" s="18"/>
       <c r="C268" s="18"/>
       <c r="D268" s="41" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E268" s="18"/>
       <c r="F268" s="18"/>
@@ -12660,7 +12660,7 @@
       <c r="N268" s="95"/>
       <c r="O268" s="95"/>
       <c r="P268" s="96" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q268" s="96"/>
       <c r="R268" s="18"/>
@@ -12689,13 +12689,13 @@
         <v>4</v>
       </c>
       <c r="D269" s="40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E269" s="14"/>
       <c r="F269" s="14"/>
       <c r="G269" s="14"/>
       <c r="H269" s="77" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I269" s="77"/>
       <c r="J269" s="77"/>
@@ -12707,13 +12707,13 @@
       <c r="P269" s="74"/>
       <c r="Q269" s="74"/>
       <c r="S269" s="40" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="T269" s="14"/>
       <c r="U269" s="14"/>
       <c r="V269" s="14"/>
       <c r="W269" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="X269" s="58"/>
       <c r="Y269" s="58"/>
@@ -12733,7 +12733,7 @@
       <c r="B270" s="14"/>
       <c r="C270" s="14"/>
       <c r="D270" s="40" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E270" s="14"/>
       <c r="F270" s="14"/>
@@ -12747,11 +12747,11 @@
       <c r="N270" s="57"/>
       <c r="O270" s="57"/>
       <c r="P270" s="85" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q270" s="85"/>
       <c r="S270" s="40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T270" s="14"/>
       <c r="U270" s="14"/>
@@ -12765,7 +12765,7 @@
       <c r="AC270" s="58"/>
       <c r="AD270" s="14"/>
       <c r="AE270" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AF270" s="14"/>
       <c r="AG270" s="14"/>
@@ -12777,14 +12777,14 @@
       <c r="B271" s="14"/>
       <c r="C271" s="14"/>
       <c r="D271" s="40" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E271" s="14"/>
       <c r="F271" s="14"/>
       <c r="G271" s="14"/>
       <c r="H271" s="14"/>
       <c r="I271" s="65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J271" s="65"/>
       <c r="K271" s="65"/>
@@ -12795,7 +12795,7 @@
       <c r="P271" s="65"/>
       <c r="Q271" s="65"/>
       <c r="S271" s="40" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="T271" s="14"/>
       <c r="U271" s="14"/>
@@ -12819,7 +12819,7 @@
       <c r="B272" s="14"/>
       <c r="C272" s="14"/>
       <c r="D272" s="40" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E272" s="14"/>
       <c r="F272" s="14"/>
@@ -12833,16 +12833,16 @@
       <c r="N272" s="57"/>
       <c r="O272" s="57"/>
       <c r="P272" s="85" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q272" s="85"/>
       <c r="R272" s="14"/>
       <c r="S272" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T272" s="58"/>
       <c r="U272" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V272" s="58"/>
       <c r="W272" s="58"/>
@@ -12864,7 +12864,7 @@
       <c r="B273" s="14"/>
       <c r="C273" s="14"/>
       <c r="D273" s="41" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E273" s="18"/>
       <c r="F273" s="18"/>
@@ -12878,7 +12878,7 @@
       <c r="N273" s="95"/>
       <c r="O273" s="95"/>
       <c r="P273" s="96" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q273" s="96"/>
       <c r="R273" s="18"/>
@@ -12907,13 +12907,13 @@
         <v>5</v>
       </c>
       <c r="D274" s="40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E274" s="14"/>
       <c r="F274" s="14"/>
       <c r="G274" s="14"/>
       <c r="H274" s="77" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I274" s="77"/>
       <c r="J274" s="77"/>
@@ -12925,13 +12925,13 @@
       <c r="P274" s="74"/>
       <c r="Q274" s="74"/>
       <c r="S274" s="40" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="T274" s="14"/>
       <c r="U274" s="14"/>
       <c r="V274" s="14"/>
       <c r="W274" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="X274" s="58"/>
       <c r="Y274" s="58"/>
@@ -12951,7 +12951,7 @@
       <c r="B275" s="14"/>
       <c r="C275" s="14"/>
       <c r="D275" s="40" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E275" s="14"/>
       <c r="F275" s="14"/>
@@ -12965,11 +12965,11 @@
       <c r="N275" s="57"/>
       <c r="O275" s="57"/>
       <c r="P275" s="85" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q275" s="85"/>
       <c r="S275" s="40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T275" s="14"/>
       <c r="U275" s="14"/>
@@ -12983,7 +12983,7 @@
       <c r="AC275" s="58"/>
       <c r="AD275" s="14"/>
       <c r="AE275" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AF275" s="14"/>
       <c r="AG275" s="14"/>
@@ -12995,14 +12995,14 @@
       <c r="B276" s="14"/>
       <c r="C276" s="14"/>
       <c r="D276" s="40" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E276" s="14"/>
       <c r="F276" s="14"/>
       <c r="G276" s="14"/>
       <c r="H276" s="14"/>
       <c r="I276" s="65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J276" s="65"/>
       <c r="K276" s="65"/>
@@ -13013,7 +13013,7 @@
       <c r="P276" s="65"/>
       <c r="Q276" s="65"/>
       <c r="S276" s="40" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="T276" s="14"/>
       <c r="U276" s="14"/>
@@ -13037,7 +13037,7 @@
       <c r="B277" s="14"/>
       <c r="C277" s="14"/>
       <c r="D277" s="40" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E277" s="14"/>
       <c r="F277" s="14"/>
@@ -13051,16 +13051,16 @@
       <c r="N277" s="57"/>
       <c r="O277" s="57"/>
       <c r="P277" s="85" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q277" s="85"/>
       <c r="R277" s="14"/>
       <c r="S277" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T277" s="58"/>
       <c r="U277" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V277" s="58"/>
       <c r="W277" s="58"/>
@@ -13082,7 +13082,7 @@
       <c r="B278" s="14"/>
       <c r="C278" s="14"/>
       <c r="D278" s="40" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E278" s="14"/>
       <c r="F278" s="14"/>
@@ -13096,7 +13096,7 @@
       <c r="N278" s="57"/>
       <c r="O278" s="57"/>
       <c r="P278" s="85" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q278" s="85"/>
       <c r="R278" s="14"/>
